--- a/funds/stocks/财管&财务报表同型分析.xlsx
+++ b/funds/stocks/财管&财务报表同型分析.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20603" windowHeight="8495" activeTab="2"/>
+    <workbookView windowWidth="20603" windowHeight="8495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="资产&amp;负债结构分析" sheetId="2" r:id="rId1"/>
     <sheet name="(经营性&amp;金融性)资产&amp;负债结构分析" sheetId="4" r:id="rId2"/>
     <sheet name="利润&amp;现金流结构分析" sheetId="3" r:id="rId3"/>
+    <sheet name="综合实力分析" sheetId="5" r:id="rId4"/>
+    <sheet name="资产负债表分析视角" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="205">
   <si>
     <t>项目</t>
   </si>
@@ -162,34 +164,37 @@
     <t>其他权益工具投资占非流动资产比率</t>
   </si>
   <si>
+    <t>短期借款占非流动负债比率</t>
+  </si>
+  <si>
+    <t>固定资产占非流动资产比率</t>
+  </si>
+  <si>
     <t>长期借款占非流动负债比率</t>
   </si>
   <si>
-    <t>固定资产占非流动资产比率</t>
+    <t>在建工程占非流动资产比率</t>
   </si>
   <si>
     <t>长期应付款占非流动负债比率</t>
   </si>
   <si>
-    <t>在建工程占非流动资产比率</t>
+    <t>长期待摊费用占非流动资产比率</t>
   </si>
   <si>
     <t>递延所得税负债占非流动负债比率</t>
   </si>
   <si>
-    <t>长期待摊费用占非流动资产比率</t>
+    <t>无形资产占非流动资产比率</t>
   </si>
   <si>
     <t>递延收益占非流动负债比率</t>
   </si>
   <si>
-    <t>无形资产占非流动资产比率</t>
+    <t>开发支出占非流动资产比率</t>
   </si>
   <si>
     <t>其他非流动负债占非流动负债比率</t>
-  </si>
-  <si>
-    <t>开发支出占非流动资产比率</t>
   </si>
   <si>
     <t>商誉占非流动资产比率</t>
@@ -455,6 +460,180 @@
   </si>
   <si>
     <t>高估卖出点</t>
+  </si>
+  <si>
+    <t>2019（合并报表）</t>
+  </si>
+  <si>
+    <t>2019(母公司报表)</t>
+  </si>
+  <si>
+    <t>综合实力分析</t>
+  </si>
+  <si>
+    <t>投资净收益</t>
+  </si>
+  <si>
+    <t>营业利润</t>
+  </si>
+  <si>
+    <t>其他应收款</t>
+  </si>
+  <si>
+    <t>资产总计</t>
+  </si>
+  <si>
+    <t>股票的价格=</t>
+  </si>
+  <si>
+    <t>价值x情绪</t>
+  </si>
+  <si>
+    <t>收益评价指标</t>
+  </si>
+  <si>
+    <t>标准</t>
+  </si>
+  <si>
+    <t>风险评价指标</t>
+  </si>
+  <si>
+    <t>净收入</t>
+  </si>
+  <si>
+    <t>利润是否为正</t>
+  </si>
+  <si>
+    <t>现金流质量</t>
+  </si>
+  <si>
+    <t>净收入与现金流查询是否越来越大</t>
+  </si>
+  <si>
+    <t>营运现金流</t>
+  </si>
+  <si>
+    <t>1年现金流是否为正</t>
+  </si>
+  <si>
+    <t>应收账款周转率</t>
+  </si>
+  <si>
+    <t>应收账款周转天数是否在增加</t>
+  </si>
+  <si>
+    <t>资产回报率(ROA)</t>
+  </si>
+  <si>
+    <t>ROA是否每年改善</t>
+  </si>
+  <si>
+    <t>库存周转率</t>
+  </si>
+  <si>
+    <t>库存周转天数是否在增加</t>
+  </si>
+  <si>
+    <t>盈利质量</t>
+  </si>
+  <si>
+    <t>营业收付是否大于资产回报</t>
+  </si>
+  <si>
+    <t>其他流动资产</t>
+  </si>
+  <si>
+    <t>与收入相关其他流动资产是否在增加</t>
+  </si>
+  <si>
+    <t>长期债务与资产比率</t>
+  </si>
+  <si>
+    <t>是否每年在下降</t>
+  </si>
+  <si>
+    <t>总资产折旧</t>
+  </si>
+  <si>
+    <t>总资产折旧是否在减少</t>
+  </si>
+  <si>
+    <t>流动比率</t>
+  </si>
+  <si>
+    <t>流动资金是否每年在增加</t>
+  </si>
+  <si>
+    <t>商誉是否过大</t>
+  </si>
+  <si>
+    <t>流通股</t>
+  </si>
+  <si>
+    <t>1年内是否已被稀释</t>
+  </si>
+  <si>
+    <t>是否每年有所增长</t>
+  </si>
+  <si>
+    <t>资产周转率</t>
+  </si>
+  <si>
+    <t>销售额相对于资产是否在增涨</t>
+  </si>
+  <si>
+    <t>经营战略视角</t>
+  </si>
+  <si>
+    <t>扩展战略</t>
+  </si>
+  <si>
+    <t>引资战略</t>
+  </si>
+  <si>
+    <t>投资者视角</t>
+  </si>
+  <si>
+    <t>资产</t>
+  </si>
+  <si>
+    <t>负债及所有者权益</t>
+  </si>
+  <si>
+    <t>经营资产</t>
+  </si>
+  <si>
+    <t>干什么</t>
+  </si>
+  <si>
+    <t>给谁干</t>
+  </si>
+  <si>
+    <t>怎么干</t>
+  </si>
+  <si>
+    <t>怎么分</t>
+  </si>
+  <si>
+    <t>投在资产</t>
+  </si>
+  <si>
+    <t>股东入资</t>
+  </si>
+  <si>
+    <t>效率和效益</t>
+  </si>
+  <si>
+    <t>公平与和谐</t>
+  </si>
+  <si>
+    <t>利润分配</t>
+  </si>
+  <si>
+    <t>利润产生机制</t>
+  </si>
+  <si>
+    <t>利润协调机制</t>
   </si>
 </sst>
 </file>
@@ -462,22 +641,49 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -491,13 +697,64 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,8 +768,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,8 +807,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,68 +846,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -609,32 +853,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,6 +866,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -667,31 +893,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,19 +923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +941,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,13 +995,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,7 +1013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,79 +1025,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,6 +1038,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,15 +1182,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -982,15 +1193,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,21 +1217,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,6 +1246,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1067,10 +1287,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1079,139 +1299,199 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1222,87 +1502,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1318,7 +1589,7 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="11" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="11" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="11" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1330,13 +1601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="11" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="11" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1660,7 +1925,7 @@
   <sheetPr/>
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J19" sqref="J19:L24"/>
     </sheetView>
   </sheetViews>
@@ -1668,7 +1933,7 @@
   <cols>
     <col min="2" max="2" width="10.6393442622951" customWidth="1"/>
     <col min="3" max="3" width="32.9262295081967" customWidth="1"/>
-    <col min="4" max="4" width="7.45081967213115" customWidth="1"/>
+    <col min="4" max="4" width="11.1639344262295" customWidth="1"/>
     <col min="5" max="6" width="9.45081967213115" customWidth="1"/>
     <col min="8" max="8" width="10.6393442622951" customWidth="1"/>
     <col min="9" max="9" width="30.9262295081967" customWidth="1"/>
@@ -1677,708 +1942,724 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22">
         <v>2019</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="22">
         <v>2018</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="22">
         <v>2017</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22">
         <v>2019</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="22">
         <v>2018</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="22">
         <v>2017</v>
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="40" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="H4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="2" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="2" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="2" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="5"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="2" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="2" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="27"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="42" t="e">
+      <c r="D10" s="57" t="e">
         <f>D4/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="42" t="e">
+      <c r="E10" s="57" t="e">
         <f>E4/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="42" t="e">
+      <c r="F10" s="57" t="e">
         <f>F4/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="42" t="e">
+      <c r="D11" s="57" t="e">
         <f>D5/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E11" s="42" t="e">
+      <c r="E11" s="57" t="e">
         <f>E5/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="42" t="e">
+      <c r="F11" s="57" t="e">
         <f>F5/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="23"/>
+      <c r="I11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="5"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="42" t="e">
+      <c r="D12" s="57" t="e">
         <f>D6/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E12" s="42" t="e">
+      <c r="E12" s="57" t="e">
         <f>E6/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="42" t="e">
+      <c r="F12" s="57" t="e">
         <f>F6/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="23"/>
+      <c r="I12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="42" t="e">
+      <c r="J12" s="57" t="e">
         <f t="shared" ref="J12:L12" si="0">J4/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="42" t="e">
+      <c r="K12" s="57" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="42" t="e">
+      <c r="L12" s="57" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="42" t="e">
+      <c r="D13" s="57" t="e">
         <f>D7/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E13" s="42" t="e">
+      <c r="E13" s="57" t="e">
         <f>E7/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="42" t="e">
+      <c r="F13" s="57" t="e">
         <f>F7/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="4" t="s">
+      <c r="H13" s="23"/>
+      <c r="I13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="42" t="e">
+      <c r="J13" s="57" t="e">
         <f t="shared" ref="J13:L13" si="1">J5/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="42" t="e">
+      <c r="K13" s="57" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="42" t="e">
+      <c r="L13" s="57" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="42" t="e">
+      <c r="D14" s="57" t="e">
         <f>D8/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E14" s="42" t="e">
+      <c r="E14" s="57" t="e">
         <f>E8/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="42" t="e">
+      <c r="F14" s="57" t="e">
         <f>F8/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="4" t="s">
+      <c r="H14" s="23"/>
+      <c r="I14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="42" t="e">
+      <c r="J14" s="57" t="e">
         <f t="shared" ref="J14:L14" si="2">J6/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="42" t="e">
+      <c r="K14" s="57" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="42" t="e">
+      <c r="L14" s="57" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="4" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="42" t="e">
+      <c r="J15" s="57" t="e">
         <f t="shared" ref="J15:L15" si="3">J7/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="42" t="e">
+      <c r="K15" s="57" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="42" t="e">
+      <c r="L15" s="57" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="3"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="4" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="42" t="e">
+      <c r="J16" s="57" t="e">
         <f t="shared" ref="J16:L16" si="4">J8/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="42" t="e">
+      <c r="K16" s="57" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="42" t="e">
+      <c r="L16" s="57" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="3"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="4" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="42" t="e">
+      <c r="J17" s="57" t="e">
         <f t="shared" ref="J17:L17" si="5">J9/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="42" t="e">
+      <c r="K17" s="57" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="42" t="e">
+      <c r="L17" s="57" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="3"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="4" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="42" t="e">
+      <c r="J18" s="57" t="e">
         <f t="shared" ref="J18:L18" si="6">J10/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="42" t="e">
+      <c r="K18" s="57" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="42" t="e">
+      <c r="L18" s="57" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="H19" s="3" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="H19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="2" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="3"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="3"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="42" t="e">
+      <c r="D24" s="57" t="e">
         <f>D15/D23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="42" t="e">
+      <c r="E24" s="57" t="e">
         <f>E15/E23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="42" t="e">
+      <c r="F24" s="57" t="e">
         <f>F15/F23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2" t="s">
+      <c r="H24" s="23"/>
+      <c r="I24" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="42" t="e">
+      <c r="D25" s="57" t="e">
         <f>D16/D23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="42" t="e">
+      <c r="E25" s="57" t="e">
         <f>E16/E23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="42" t="e">
+      <c r="F25" s="57" t="e">
         <f>F16/F23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4" t="s">
+      <c r="H25" s="23"/>
+      <c r="I25" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="42" t="e">
-        <f t="shared" ref="J25:L25" si="7">J19/J24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="42" t="e">
+      <c r="J25" s="57" t="e">
+        <f>J4/J24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="57" t="e">
+        <f>K4/K24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="57" t="e">
+        <f>L4/L24</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="57" t="e">
+        <f>D17/D23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="57" t="e">
+        <f>E17/E23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="57" t="e">
+        <f>F17/F23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="57" t="e">
+        <f t="shared" ref="J26:L26" si="7">J19/J24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="57" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="42" t="e">
+      <c r="L26" s="57" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="42" t="e">
-        <f>D17/D23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="42" t="e">
-        <f>E17/E23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="42" t="e">
-        <f>F17/F23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="42" t="e">
-        <f t="shared" ref="J26:L26" si="8">J20/J24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="42" t="e">
+    <row r="27" spans="2:12">
+      <c r="B27" s="23"/>
+      <c r="C27" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="57" t="e">
+        <f>D18/D23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="57" t="e">
+        <f>E18/E23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="57" t="e">
+        <f>F18/F23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="57" t="e">
+        <f t="shared" ref="J27:L27" si="8">J20/J24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="57" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="42" t="e">
+      <c r="L27" s="57" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="3"/>
-      <c r="C27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="42" t="e">
-        <f>D18/D23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="42" t="e">
-        <f>E18/E23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="42" t="e">
-        <f>F18/F23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="42" t="e">
-        <f t="shared" ref="J27:L27" si="9">J21/J24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="42" t="e">
+    <row r="28" spans="2:12">
+      <c r="B28" s="23"/>
+      <c r="C28" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="57" t="e">
+        <f>D19/D23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="57" t="e">
+        <f>E19/E23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="57" t="e">
+        <f>F19/F23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="57" t="e">
+        <f t="shared" ref="J28:L28" si="9">J21/J24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="57" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="42" t="e">
+      <c r="L28" s="57" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="42" t="e">
-        <f>D19/D23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="42" t="e">
-        <f>E19/E23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="42" t="e">
-        <f>F19/F23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="42" t="e">
-        <f t="shared" ref="J28:L28" si="10">J22/J24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="42" t="e">
+    <row r="29" spans="2:12">
+      <c r="B29" s="23"/>
+      <c r="C29" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="57" t="e">
+        <f>D20/D23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="57" t="e">
+        <f>E20/E23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="57" t="e">
+        <f>F20/F23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="57" t="e">
+        <f t="shared" ref="J29:L29" si="10">J22/J24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="57" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="42" t="e">
+      <c r="L29" s="57" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="42" t="e">
-        <f>D20/D23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="42" t="e">
-        <f>E20/E23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="42" t="e">
-        <f>F20/F23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="42" t="e">
-        <f t="shared" ref="J29:L29" si="11">J23/J24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="42" t="e">
+    <row r="30" spans="2:12">
+      <c r="B30" s="23"/>
+      <c r="C30" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="57" t="e">
+        <f>D21/D23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="57" t="e">
+        <f>E21/E23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" s="57" t="e">
+        <f>F21/F23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="57" t="e">
+        <f t="shared" ref="J30:L30" si="11">J23/J24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="57" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="42" t="e">
+      <c r="L30" s="57" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="3"/>
-      <c r="C30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="42" t="e">
-        <f>D21/D23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30" s="42" t="e">
-        <f>E21/E23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="42" t="e">
-        <f>F21/F23</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="3"/>
-      <c r="C31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="42" t="e">
+      <c r="B31" s="23"/>
+      <c r="C31" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="57" t="e">
         <f>D22/D23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="42" t="e">
+      <c r="E31" s="57" t="e">
         <f>E22/E23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="42" t="e">
+      <c r="F31" s="57" t="e">
         <f>F22/F23</f>
         <v>#DIV/0!</v>
       </c>
@@ -2390,7 +2671,7 @@
     <mergeCell ref="B4:B14"/>
     <mergeCell ref="B15:B31"/>
     <mergeCell ref="H4:H18"/>
-    <mergeCell ref="H19:H29"/>
+    <mergeCell ref="H19:H30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2420,429 +2701,429 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22">
         <v>2019</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="22">
         <v>2018</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="22">
         <v>2017</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22">
         <v>2019</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="22">
         <v>2018</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="22">
         <v>2017</v>
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="H4" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="5"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="34" t="s">
+      <c r="C11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="3"/>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="H12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="22" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="H12" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="I12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="3"/>
-      <c r="C13" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="22" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="3"/>
-      <c r="C14" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="22" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="3"/>
-      <c r="C15" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="22" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="3"/>
-      <c r="C16" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="22" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="3"/>
-      <c r="C17" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="22" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="3"/>
-      <c r="C18" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="22" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="3"/>
-      <c r="C19" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="22" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="31"/>
-      <c r="C20" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="22" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="33" t="e">
+      <c r="C21" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="50" t="e">
         <f>SUM(D4:D10)/D20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="33" t="e">
+      <c r="E21" s="50" t="e">
         <f>SUM(E4:E10)/E20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="33" t="e">
+      <c r="F21" s="50" t="e">
         <f>SUM(F4:F10)/F20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="32" t="s">
+      <c r="H21" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="35" t="e">
+      <c r="I21" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="52" t="e">
         <f>SUM(J4:J11)/J20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="35" t="e">
+      <c r="K21" s="52" t="e">
         <f>SUM(K4:K11)/K20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="35" t="e">
+      <c r="L21" s="52" t="e">
         <f>SUM(L4:L11)/L20</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="3"/>
-      <c r="C22" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="33" t="e">
+      <c r="B22" s="23"/>
+      <c r="C22" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="50" t="e">
         <f>SUM(D11:D19)/D20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="33" t="e">
+      <c r="E22" s="50" t="e">
         <f>SUM(E11:E19)/E20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="33" t="e">
+      <c r="F22" s="50" t="e">
         <f>SUM(F11:F19)/F20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="J22" s="35" t="e">
+      <c r="H22" s="23"/>
+      <c r="I22" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="52" t="e">
         <f>SUM(J12:J19)/J20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="35" t="e">
+      <c r="K22" s="52" t="e">
         <f>SUM(K12:K19)/K20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="35" t="e">
+      <c r="L22" s="52" t="e">
         <f>SUM(L12:L19)/L20</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="8:12">
-      <c r="H23" s="3"/>
-      <c r="I23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" s="36" t="e">
+      <c r="H23" s="23"/>
+      <c r="I23" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="53" t="e">
         <f>SUM(J4:J11)/D20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="36" t="e">
+      <c r="K23" s="53" t="e">
         <f>SUM(K4:K11)/E20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="36" t="e">
+      <c r="L23" s="53" t="e">
         <f>SUM(L4:L11)/F20</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="8:12">
-      <c r="H24" s="3"/>
-      <c r="I24" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J24" s="36" t="e">
+      <c r="H24" s="23"/>
+      <c r="I24" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="53" t="e">
         <f>SUM(J14:J19)/D20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="36" t="e">
+      <c r="K24" s="53" t="e">
         <f>SUM(K14:K19)/E20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="36" t="e">
+      <c r="L24" s="53" t="e">
         <f>SUM(L14:L19)/F20</f>
         <v>#DIV/0!</v>
       </c>
@@ -2868,8 +3149,8 @@
   <sheetPr/>
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -2881,593 +3162,602 @@
     <col min="9" max="9" width="9.16393442622951" customWidth="1"/>
     <col min="10" max="10" width="9.45081967213115" customWidth="1"/>
     <col min="11" max="11" width="12.4344262295082" customWidth="1"/>
-    <col min="12" max="12" width="8.72131147540984" style="1"/>
+    <col min="12" max="12" width="8.72131147540984" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22">
         <v>2019</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="22">
         <v>2018</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="22">
         <v>2017</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="22">
         <v>2019</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="22">
         <v>2018</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="22">
         <v>2017</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="B4" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="G4" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="25"/>
+      <c r="H4" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="3" t="s">
+      <c r="B5" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="G5" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="H5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2" t="s">
+      <c r="B6" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4" t="s">
+      <c r="B7" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="3" t="s">
+      <c r="B8" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="G8" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="H8" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="5"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2" t="s">
+      <c r="B9" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2" t="s">
+      <c r="B10" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="5"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2" t="s">
+      <c r="B11" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2" t="s">
+      <c r="B12" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4" t="s">
+      <c r="B13" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="G14" s="6" t="s">
+      <c r="B14" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="G14" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="26">
+        <f>I4-I5-I6</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="26">
+        <f>J4-J5-J6</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="26">
+        <f>K4-K5-K6</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="B15" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="G16" s="9" t="s">
+      <c r="B16" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="G16" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="10">
+      <c r="H16" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="30">
         <f>SUM(I14:K14)/3</f>
         <v>0</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10" t="s">
+      <c r="B17" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="I17" s="26">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="44">
         <v>0.08</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="10" t="s">
+      <c r="B18" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="26">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="44">
         <v>0.03</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="B19" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="32">
         <f>C4-C5</f>
         <v>0</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="32">
         <f>D4-D5</f>
         <v>0</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="32">
         <f>E4-E5</f>
         <v>0</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="26">
+      <c r="G19" s="31"/>
+      <c r="H19" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="44">
         <v>0.1</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="13" t="e">
+      <c r="B20" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="33" t="e">
         <f>C19/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D20" s="13" t="e">
+      <c r="D20" s="33" t="e">
         <f>D19/D4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="13" t="e">
+      <c r="E20" s="33" t="e">
         <f>E19/E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I20" s="27">
-        <v>90.28</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="45">
+        <v>9.88</v>
+      </c>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="34">
         <f>C4-C5-C6-C7-C8-C9-C10</f>
         <v>0</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="34">
         <f>D4-D5-D6-D7-D8-D9-D10</f>
         <v>0</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="34">
         <f>E4-E5-E6-E7-E8-E9-E10</f>
         <v>0</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="G21" s="31"/>
+      <c r="H21" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="30">
         <f>I16*(1+I19)/POWER(1+I17,1)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="15" t="e">
+      <c r="B22" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="35" t="e">
         <f>C21/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D22" s="15" t="e">
+      <c r="D22" s="35" t="e">
         <f>D21/D4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="15" t="e">
+      <c r="E22" s="35" t="e">
         <f>E21/E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="I22" s="10">
+      <c r="G22" s="31"/>
+      <c r="H22" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="30">
         <f>I16*POWER(1+I19,2)/POWER(1+I17,2)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="17" t="e">
+      <c r="B23" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="37" t="e">
         <f>C21/I4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="17" t="e">
+      <c r="D23" s="37" t="e">
         <f>D21/J4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="17" t="e">
+      <c r="E23" s="37" t="e">
         <f>E21/K4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I23" s="10">
+      <c r="G23" s="31"/>
+      <c r="H23" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="30">
         <f>I16*POWER(1+I19,3)/POWER(1+I17,3)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="18" t="e">
+      <c r="B24" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="38" t="e">
         <f>C7/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="18" t="e">
+      <c r="D24" s="38" t="e">
         <f>D7/D4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="18" t="e">
+      <c r="E24" s="38" t="e">
         <f>E7/E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I24" s="10">
+      <c r="G24" s="31"/>
+      <c r="H24" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="30">
         <f>(SUM(I21:I23)*(1+I18))/I17-I18</f>
         <v>-0.03</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="18" t="e">
+      <c r="B25" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="38" t="e">
         <f>C8/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="18" t="e">
+      <c r="D25" s="38" t="e">
         <f>D8/D4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="18" t="e">
+      <c r="E25" s="38" t="e">
         <f>E8/E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I25" s="10">
+      <c r="G25" s="31"/>
+      <c r="H25" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="30">
         <f>SUM(I21:I24)</f>
         <v>-0.03</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="18" t="e">
+      <c r="B26" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="38" t="e">
         <f>C16/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="18" t="e">
+      <c r="D26" s="38" t="e">
         <f>D16/D4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="18" t="e">
+      <c r="E26" s="38" t="e">
         <f>E16/E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="I26" s="20">
+      <c r="G26" s="39"/>
+      <c r="H26" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" s="16">
         <f>I25/I20</f>
-        <v>-0.000332299512627381</v>
+        <v>-0.00303643724696356</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="18" t="e">
+      <c r="B27" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="38" t="e">
         <f>C18/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="18" t="e">
+      <c r="D27" s="38" t="e">
         <f>D18/D4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="18" t="e">
+      <c r="E27" s="38" t="e">
         <f>E18/E4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="7:10">
-      <c r="G28" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="22" t="s">
+      <c r="G28" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="I28" s="28">
+      <c r="H28" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" s="46">
         <v>0.1</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" s="22"/>
     </row>
     <row r="29" spans="7:10">
-      <c r="G29" s="23"/>
-      <c r="H29" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="I29" s="28">
+      <c r="G29" s="41"/>
+      <c r="H29" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="46">
         <v>0.04</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="13">
         <f>1/I29</f>
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="7:10">
-      <c r="G30" s="23"/>
-      <c r="H30" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" s="28">
+      <c r="G30" s="41"/>
+      <c r="H30" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="46">
         <v>0.02</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="13">
         <f>1/I30</f>
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="7:10">
-      <c r="G31" s="23"/>
-      <c r="H31" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="I31" s="22">
+      <c r="G31" s="41"/>
+      <c r="H31" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="13">
         <f>(C18*POWER(1+I28,3))*J29</f>
         <v>0</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="13">
         <f>I31/I20</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="7:10">
-      <c r="G32" s="23"/>
-      <c r="H32" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="I32" s="22">
+      <c r="G32" s="41"/>
+      <c r="H32" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" s="13">
         <f>I31*0.7</f>
         <v>0</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="13">
         <f>I32/I20</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="7:10">
-      <c r="G33" s="24"/>
-      <c r="H33" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="I33" s="22">
+      <c r="G33" s="42"/>
+      <c r="H33" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" s="13">
         <f>(C18*POWER(1+I28,3))*J30</f>
         <v>0</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="13">
         <f>I33/I20</f>
         <v>0</v>
       </c>
@@ -3485,4 +3775,656 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.6393442622951" customWidth="1"/>
+    <col min="2" max="2" width="18.8770491803279" customWidth="1"/>
+    <col min="3" max="3" width="26.9672131147541" customWidth="1"/>
+    <col min="4" max="4" width="24.5983606557377" customWidth="1"/>
+    <col min="5" max="5" width="12.6393442622951" customWidth="1"/>
+    <col min="6" max="6" width="18.7377049180328" customWidth="1"/>
+    <col min="7" max="7" width="17.9754098360656" customWidth="1"/>
+    <col min="8" max="8" width="35.0409836065574" customWidth="1"/>
+    <col min="9" max="9" width="16.6147540983607" customWidth="1"/>
+    <col min="10" max="10" width="17.6147540983607" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9">
+        <v>2019</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2018</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2017</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="H4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F4</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="11">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.4988442046</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="10"/>
+      <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E9</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F9</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="12">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.0299476521</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="10"/>
+      <c r="C7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="12">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E5</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F5</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="12">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1.5955254148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="10"/>
+      <c r="C8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="13">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D10</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E10</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F10</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="12">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.4077053511</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="10"/>
+      <c r="C9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="12">
+        <f>'利润&amp;现金流结构分析'!C5</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <f>'利润&amp;现金流结构分析'!D5</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <f>'利润&amp;现金流结构分析'!E5</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="12">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.2695451313</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="10"/>
+      <c r="C10" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="10"/>
+      <c r="C11" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="12">
+        <v>12.74</v>
+      </c>
+      <c r="E11" s="12">
+        <v>12.81</v>
+      </c>
+      <c r="F11" s="12">
+        <v>10.36</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="12">
+        <f>D11</f>
+        <v>12.74</v>
+      </c>
+      <c r="J11" s="12">
+        <v>-0.045803108</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="10"/>
+      <c r="C12" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="12">
+        <f>'利润&amp;现金流结构分析'!C21</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <f>'利润&amp;现金流结构分析'!D21</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <f>'利润&amp;现金流结构分析'!E21</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="12">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>-1.070719455</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="10"/>
+      <c r="C13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="12">
+        <f>'利润&amp;现金流结构分析'!I4</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <f>'利润&amp;现金流结构分析'!J4</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <f>'利润&amp;现金流结构分析'!K4</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="12">
+        <f>D13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.5914757405</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="10"/>
+      <c r="C14" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1.2901867163</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.736342833</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.597041</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1.2901867163</v>
+      </c>
+      <c r="J14" s="13">
+        <v>1.4334530257</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="10"/>
+      <c r="C15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="13">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D12</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E12</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F12</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="13">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>134.3845945702</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="10"/>
+      <c r="C16" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="13">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D20</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E20</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F20</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="I16" s="13">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>139.6576402838</v>
+      </c>
+    </row>
+    <row r="22" ht="16.05" spans="3:4">
+      <c r="C22" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" ht="16.05" spans="2:8">
+      <c r="B24" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" ht="16.05" spans="2:8">
+      <c r="B25" s="19"/>
+      <c r="C25" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" ht="16.05" spans="2:8">
+      <c r="B26" s="19"/>
+      <c r="C26" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" ht="16.05" spans="2:8">
+      <c r="B27" s="19"/>
+      <c r="C27" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" ht="16.05" spans="2:8">
+      <c r="B28" s="19"/>
+      <c r="C28" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" ht="16.05" spans="2:8">
+      <c r="B29" s="19"/>
+      <c r="C29" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" ht="16.05" spans="2:8">
+      <c r="B30" s="19"/>
+      <c r="C30" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" ht="16.05" spans="2:4">
+      <c r="B31" s="19"/>
+      <c r="C31" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" ht="16.05" spans="2:4">
+      <c r="B32" s="19"/>
+      <c r="C32" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" ht="16.05" spans="2:4">
+      <c r="B33" s="20"/>
+      <c r="C33" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B16"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="F24:F30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="27.4098360655738" customWidth="1"/>
+    <col min="3" max="3" width="18.7049180327869" customWidth="1"/>
+    <col min="4" max="4" width="23.0573770491803" customWidth="1"/>
+    <col min="6" max="7" width="23.0573770491803" customWidth="1"/>
+    <col min="8" max="8" width="20.6967213114754" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="18.25" spans="2:8">
+      <c r="B2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" ht="18.25" spans="2:8">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" ht="18.25" spans="2:8">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" ht="18.25" spans="2:8">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" ht="18.25" spans="2:8">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" ht="18.25" spans="7:8">
+      <c r="G7" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F2:F5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/funds/stocks/财管&财务报表同型分析.xlsx
+++ b/funds/stocks/财管&财务报表同型分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20603" windowHeight="8495" activeTab="3"/>
+    <workbookView windowWidth="20603" windowHeight="8495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="资产&amp;负债结构分析" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="206">
   <si>
     <t>项目</t>
   </si>
@@ -149,55 +149,58 @@
     <t>递延收益</t>
   </si>
   <si>
+    <t>其他非流动资产</t>
+  </si>
+  <si>
+    <t>其他非流动负债</t>
+  </si>
+  <si>
     <t>非流动资产合计</t>
   </si>
   <si>
-    <t>其他非流动负债</t>
+    <t>非流动负债合计</t>
   </si>
   <si>
     <t>长期股权投资占非流动资产比率</t>
   </si>
   <si>
-    <t>非流动负债合计</t>
-  </si>
-  <si>
     <t>其他权益工具投资占非流动资产比率</t>
   </si>
   <si>
-    <t>短期借款占非流动负债比率</t>
+    <t>长期借款占非流动负债比率</t>
   </si>
   <si>
     <t>固定资产占非流动资产比率</t>
   </si>
   <si>
-    <t>长期借款占非流动负债比率</t>
+    <t>长期应付款占非流动负债比率</t>
   </si>
   <si>
     <t>在建工程占非流动资产比率</t>
   </si>
   <si>
-    <t>长期应付款占非流动负债比率</t>
+    <t>递延所得税负债占非流动负债比率</t>
   </si>
   <si>
     <t>长期待摊费用占非流动资产比率</t>
   </si>
   <si>
-    <t>递延所得税负债占非流动负债比率</t>
+    <t>递延收益占非流动负债比率</t>
   </si>
   <si>
     <t>无形资产占非流动资产比率</t>
   </si>
   <si>
-    <t>递延收益占非流动负债比率</t>
+    <t>其他非流动负债占非流动负债比率</t>
   </si>
   <si>
     <t>开发支出占非流动资产比率</t>
   </si>
   <si>
-    <t>其他非流动负债占非流动负债比率</t>
-  </si>
-  <si>
     <t>商誉占非流动资产比率</t>
+  </si>
+  <si>
+    <t>其他非流动资产占非流动资产比率</t>
   </si>
   <si>
     <t>经营性资产</t>
@@ -261,10 +264,16 @@
     <t>一年内到期的非流动负债</t>
   </si>
   <si>
+    <t>负债合计</t>
+  </si>
+  <si>
     <t>资产合计</t>
   </si>
   <si>
-    <t>负债合计</t>
+    <t>负债比率</t>
+  </si>
+  <si>
+    <t>经营性负债占总负债比率</t>
   </si>
   <si>
     <t>资产比率</t>
@@ -273,16 +282,10 @@
     <t>经营性资产占总资产比率</t>
   </si>
   <si>
-    <t>负债比率</t>
-  </si>
-  <si>
-    <t>经营性负债占总负债比率</t>
+    <t>金融性负债占总负债比率</t>
   </si>
   <si>
     <t>金融性资产占总资产比率</t>
-  </si>
-  <si>
-    <t>金融性负债占总负债比率</t>
   </si>
   <si>
     <t>经营性负债占总资产比率</t>
@@ -641,14 +644,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
+    <numFmt numFmtId="178" formatCode="\+0;\-0;0;@"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -717,6 +720,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -726,13 +743,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,8 +763,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,11 +779,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,11 +817,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -801,15 +842,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,38 +856,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,7 +902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,7 +932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,7 +956,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,37 +1040,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,90 +1082,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1145,39 +1148,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1212,26 +1187,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1250,8 +1205,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,6 +1228,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1287,10 +1253,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1299,133 +1265,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1541,7 +1507,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1559,7 +1525,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1571,10 +1537,16 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1592,16 +1564,10 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="11" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="11" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1923,9 +1889,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L31"/>
+  <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J19" sqref="J19:L24"/>
     </sheetView>
   </sheetViews>
@@ -1970,9 +1936,9 @@
       <c r="C3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22" t="s">
         <v>0</v>
@@ -1997,9 +1963,9 @@
       <c r="I4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="23"/>
@@ -2086,15 +2052,15 @@
       <c r="C10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="57" t="e">
+      <c r="D10" s="56" t="e">
         <f>D4/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="57" t="e">
+      <c r="E10" s="56" t="e">
         <f>E4/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="57" t="e">
+      <c r="F10" s="56" t="e">
         <f>F4/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2111,15 +2077,15 @@
       <c r="C11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="57" t="e">
+      <c r="D11" s="56" t="e">
         <f>D5/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E11" s="57" t="e">
+      <c r="E11" s="56" t="e">
         <f>E5/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="57" t="e">
+      <c r="F11" s="56" t="e">
         <f>F5/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2136,15 +2102,15 @@
       <c r="C12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="57" t="e">
+      <c r="D12" s="56" t="e">
         <f>D6/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E12" s="57" t="e">
+      <c r="E12" s="56" t="e">
         <f>E6/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="57" t="e">
+      <c r="F12" s="56" t="e">
         <f>F6/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2152,15 +2118,15 @@
       <c r="I12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="57" t="e">
+      <c r="J12" s="56" t="e">
         <f t="shared" ref="J12:L12" si="0">J4/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="57" t="e">
+      <c r="K12" s="56" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="57" t="e">
+      <c r="L12" s="56" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2170,15 +2136,15 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="57" t="e">
+      <c r="D13" s="56" t="e">
         <f>D7/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E13" s="57" t="e">
+      <c r="E13" s="56" t="e">
         <f>E7/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="57" t="e">
+      <c r="F13" s="56" t="e">
         <f>F7/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2186,15 +2152,15 @@
       <c r="I13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="57" t="e">
+      <c r="J13" s="56" t="e">
         <f t="shared" ref="J13:L13" si="1">J5/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="57" t="e">
+      <c r="K13" s="56" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="57" t="e">
+      <c r="L13" s="56" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2204,15 +2170,15 @@
       <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="57" t="e">
+      <c r="D14" s="56" t="e">
         <f>D8/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E14" s="57" t="e">
+      <c r="E14" s="56" t="e">
         <f>E8/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="57" t="e">
+      <c r="F14" s="56" t="e">
         <f>F8/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2220,15 +2186,15 @@
       <c r="I14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="57" t="e">
+      <c r="J14" s="56" t="e">
         <f t="shared" ref="J14:L14" si="2">J6/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="57" t="e">
+      <c r="K14" s="56" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="57" t="e">
+      <c r="L14" s="56" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2240,22 +2206,22 @@
       <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
       <c r="H15" s="23"/>
       <c r="I15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="57" t="e">
+      <c r="J15" s="56" t="e">
         <f t="shared" ref="J15:L15" si="3">J7/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="57" t="e">
+      <c r="K15" s="56" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="57" t="e">
+      <c r="L15" s="56" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2272,15 +2238,15 @@
       <c r="I16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="57" t="e">
+      <c r="J16" s="56" t="e">
         <f t="shared" ref="J16:L16" si="4">J8/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="57" t="e">
+      <c r="K16" s="56" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="57" t="e">
+      <c r="L16" s="56" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -2297,15 +2263,15 @@
       <c r="I17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="57" t="e">
+      <c r="J17" s="56" t="e">
         <f t="shared" ref="J17:L17" si="5">J9/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="57" t="e">
+      <c r="K17" s="56" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="57" t="e">
+      <c r="L17" s="56" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -2322,15 +2288,15 @@
       <c r="I18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="57" t="e">
+      <c r="J18" s="56" t="e">
         <f t="shared" ref="J18:L18" si="6">J10/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="57" t="e">
+      <c r="K18" s="56" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="57" t="e">
+      <c r="L18" s="56" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2349,9 +2315,9 @@
       <c r="I19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="23"/>
@@ -2365,9 +2331,9 @@
       <c r="I20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="23"/>
@@ -2397,9 +2363,9 @@
       <c r="I22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="23"/>
@@ -2419,21 +2385,12 @@
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="23"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="57" t="e">
-        <f>D15/D23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="57" t="e">
-        <f>E15/E23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="57" t="e">
-        <f>F15/F23</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
       <c r="H24" s="23"/>
       <c r="I24" s="22" t="s">
         <v>46</v>
@@ -2447,220 +2404,256 @@
       <c r="C25" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="57" t="e">
-        <f>D16/D23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="57" t="e">
-        <f>E16/E23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="57" t="e">
-        <f>F16/F23</f>
+      <c r="D25" s="56" t="e">
+        <f>D15/D24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="56" t="e">
+        <f>E15/E24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="56" t="e">
+        <f>F15/F24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" s="57" t="e">
-        <f>J4/J24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="57" t="e">
-        <f>K4/K24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="57" t="e">
-        <f>L4/L24</f>
+        <v>20</v>
+      </c>
+      <c r="J25" s="56" t="e">
+        <f t="shared" ref="J25:L25" si="7">J4/J11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="56" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="56" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="23"/>
       <c r="C26" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="57" t="e">
-        <f>D17/D23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="57" t="e">
-        <f>E17/E23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="57" t="e">
-        <f>F17/F23</f>
+        <v>48</v>
+      </c>
+      <c r="D26" s="56" t="e">
+        <f>D16/D24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="56" t="e">
+        <f>E16/E24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="56" t="e">
+        <f>F16/F24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="57" t="e">
-        <f t="shared" ref="J26:L26" si="7">J19/J24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="57" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="57" t="e">
-        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="J26" s="56" t="e">
+        <f t="shared" ref="J26:L26" si="8">J19/J24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="56" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="56" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="23"/>
       <c r="C27" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="57" t="e">
-        <f>D18/D23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="57" t="e">
-        <f>E18/E23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="57" t="e">
-        <f>F18/F23</f>
+        <v>50</v>
+      </c>
+      <c r="D27" s="56" t="e">
+        <f>D17/D24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="56" t="e">
+        <f>E17/E24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="56" t="e">
+        <f>F17/F24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="57" t="e">
-        <f t="shared" ref="J27:L27" si="8">J20/J24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="57" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" s="57" t="e">
-        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="J27" s="56" t="e">
+        <f t="shared" ref="J27:L27" si="9">J20/J24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="56" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="56" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="23"/>
       <c r="C28" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="57" t="e">
-        <f>D19/D23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="57" t="e">
-        <f>E19/E23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="57" t="e">
-        <f>F19/F23</f>
+        <v>52</v>
+      </c>
+      <c r="D28" s="56" t="e">
+        <f>D18/D24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="56" t="e">
+        <f>E18/E24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="56" t="e">
+        <f>F18/F24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="57" t="e">
-        <f t="shared" ref="J28:L28" si="9">J21/J24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="57" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="57" t="e">
-        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="J28" s="56" t="e">
+        <f t="shared" ref="J28:L28" si="10">J21/J24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="56" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="56" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="23"/>
       <c r="C29" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="57" t="e">
-        <f>D20/D23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="57" t="e">
-        <f>E20/E23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="57" t="e">
-        <f>F20/F23</f>
+        <v>54</v>
+      </c>
+      <c r="D29" s="56" t="e">
+        <f>D19/D24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="56" t="e">
+        <f>E19/E24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="56" t="e">
+        <f>F19/F24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="57" t="e">
-        <f t="shared" ref="J29:L29" si="10">J22/J24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="57" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="57" t="e">
-        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
+      <c r="J29" s="56" t="e">
+        <f t="shared" ref="J29:L29" si="11">J22/J24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="56" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="56" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="23"/>
       <c r="C30" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="57" t="e">
-        <f>D21/D23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30" s="57" t="e">
-        <f>E21/E23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="57" t="e">
-        <f>F21/F23</f>
+        <v>56</v>
+      </c>
+      <c r="D30" s="56" t="e">
+        <f>D20/D24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="56" t="e">
+        <f>E20/E24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" s="56" t="e">
+        <f>F20/F24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" s="57" t="e">
-        <f t="shared" ref="J30:L30" si="11">J23/J24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" s="57" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" s="57" t="e">
-        <f t="shared" si="11"/>
+        <v>57</v>
+      </c>
+      <c r="J30" s="56" t="e">
+        <f t="shared" ref="J30:L30" si="12">J23/J24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="56" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="56" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="23"/>
       <c r="C31" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="56" t="e">
+        <f>D21/D24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="56" t="e">
+        <f>E21/E24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="56" t="e">
+        <f>F21/F24</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="23"/>
+      <c r="C32" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="57" t="e">
-        <f>D22/D23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="57" t="e">
-        <f>E22/E23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="57" t="e">
-        <f>F22/F23</f>
+      <c r="D32" s="56" t="e">
+        <f>D22/D24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="56" t="e">
+        <f>E22/E24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="56" t="e">
+        <f>F22/F24</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="23"/>
+      <c r="C33" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="56" t="e">
+        <f t="shared" ref="D33:F33" si="13">D23/D24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="56" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="56" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2669,7 +2662,7 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="B4:B14"/>
-    <mergeCell ref="B15:B31"/>
+    <mergeCell ref="B15:B33"/>
     <mergeCell ref="H4:H18"/>
     <mergeCell ref="H19:H30"/>
   </mergeCells>
@@ -2742,7 +2735,7 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>2</v>
@@ -2751,7 +2744,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="H4" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>6</v>
@@ -2786,7 +2779,7 @@
       <c r="F6" s="22"/>
       <c r="H6" s="23"/>
       <c r="I6" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -2858,24 +2851,24 @@
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
+      <c r="I11" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="23"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="12" t="s">
         <v>26</v>
       </c>
@@ -2883,83 +2876,83 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="H12" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="23"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="H13" s="23"/>
       <c r="I13" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="23"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="H14" s="23"/>
       <c r="I14" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="23"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="H15" s="23"/>
       <c r="I15" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="23"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="H16" s="23"/>
       <c r="I16" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="23"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -2973,9 +2966,9 @@
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="23"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -2989,30 +2982,30 @@
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="23"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="H19" s="23"/>
       <c r="I19" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="48"/>
-      <c r="C20" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="H20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="13" t="s">
         <v>81</v>
       </c>
@@ -3021,110 +3014,117 @@
       <c r="L20" s="13"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="H21" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="50" t="e">
-        <f>SUM(D4:D10)/D20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="50" t="e">
-        <f>SUM(E4:E10)/E20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="50" t="e">
-        <f>SUM(F4:F10)/F20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="23" t="s">
+      <c r="I21" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="J21" s="54" t="e">
+        <f t="shared" ref="J21:L21" si="0">SUM(J4:J11)/J20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="54" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="54" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="52" t="e">
-        <f>SUM(J4:J11)/J20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="52" t="e">
-        <f>SUM(K4:K11)/K20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="52" t="e">
-        <f>SUM(L4:L11)/L20</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="23"/>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="50" t="e">
-        <f>SUM(D11:D19)/D20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="50" t="e">
-        <f>SUM(E11:E19)/E20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="50" t="e">
-        <f>SUM(F11:F19)/F20</f>
+      <c r="D22" s="52" t="e">
+        <f>SUM(D4:D10)/D21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="52" t="e">
+        <f>SUM(E4:E10)/E21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="52" t="e">
+        <f>SUM(F4:F10)/F21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="49" t="s">
+      <c r="I22" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="52" t="e">
-        <f>SUM(J12:J19)/J20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="52" t="e">
-        <f>SUM(K12:K19)/K20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="52" t="e">
-        <f>SUM(L12:L19)/L20</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="8:12">
+      <c r="J22" s="54" t="e">
+        <f t="shared" ref="J22:L22" si="1">SUM(J12:J19)/J20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="54" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="54" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="23"/>
+      <c r="C23" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="52" t="e">
+        <f>SUM(D11:D20)/D21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="52" t="e">
+        <f>SUM(E11:E20)/E21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="52" t="e">
+        <f>SUM(F11:F20)/F21</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H23" s="23"/>
       <c r="I23" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="53" t="e">
-        <f>SUM(J4:J11)/D20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="53" t="e">
-        <f>SUM(K4:K11)/E20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" s="53" t="e">
-        <f>SUM(L4:L11)/F20</f>
+        <v>89</v>
+      </c>
+      <c r="J23" s="55" t="e">
+        <f t="shared" ref="J23:L23" si="2">SUM(J4:J11)/D21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="55" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="55" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="8:12">
       <c r="H24" s="23"/>
       <c r="I24" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24" s="53" t="e">
-        <f>SUM(J14:J19)/D20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="53" t="e">
-        <f>SUM(K14:K19)/E20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="53" t="e">
-        <f>SUM(L14:L19)/F20</f>
+        <v>90</v>
+      </c>
+      <c r="J24" s="55" t="e">
+        <f t="shared" ref="J24:L24" si="3">SUM(J12:J19)/D21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="55" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="55" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3133,8 +3133,8 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="H4:H11"/>
     <mergeCell ref="H12:H19"/>
     <mergeCell ref="H21:H24"/>
@@ -3149,7 +3149,7 @@
   <sheetPr/>
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:K13"/>
     </sheetView>
   </sheetViews>
@@ -3205,16 +3205,16 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="G4" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
@@ -3223,16 +3223,16 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="G5" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -3240,14 +3240,14 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="G6" s="23"/>
       <c r="H6" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -3255,14 +3255,14 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
@@ -3270,16 +3270,16 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="G8" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -3287,14 +3287,14 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="G9" s="23"/>
       <c r="H9" s="22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -3302,14 +3302,14 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -3317,14 +3317,14 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="G11" s="23"/>
       <c r="H11" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -3332,14 +3332,14 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="G12" s="23"/>
       <c r="H12" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -3347,14 +3347,14 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="G13" s="23"/>
       <c r="H13" s="24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -3362,16 +3362,16 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="G14" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I14" s="26">
         <f>I4-I5-I6</f>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="22"/>
@@ -3401,16 +3401,16 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="G16" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I16" s="30">
         <f>SUM(I14:K14)/3</f>
@@ -3421,14 +3421,14 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="G17" s="31"/>
       <c r="H17" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I17" s="44">
         <v>0.08</v>
@@ -3438,14 +3438,14 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="G18" s="31"/>
       <c r="H18" s="30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I18" s="44">
         <v>0.03</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" s="32">
         <f>C4-C5</f>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I19" s="44">
         <v>0.1</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C20" s="33" t="e">
         <f>C19/C4</f>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I20" s="45">
         <v>9.88</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C21" s="34">
         <f>C4-C5-C6-C7-C8-C9-C10</f>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I21" s="30">
         <f>I16*(1+I19)/POWER(1+I17,1)</f>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C22" s="35" t="e">
         <f>C21/C4</f>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="G22" s="31"/>
       <c r="H22" s="30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I22" s="30">
         <f>I16*POWER(1+I19,2)/POWER(1+I17,2)</f>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C23" s="37" t="e">
         <f>C21/I4</f>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="G23" s="31"/>
       <c r="H23" s="30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I23" s="30">
         <f>I16*POWER(1+I19,3)/POWER(1+I17,3)</f>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C24" s="38" t="e">
         <f>C7/C4</f>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="G24" s="31"/>
       <c r="H24" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I24" s="30">
         <f>(SUM(I21:I23)*(1+I18))/I17-I18</f>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C25" s="38" t="e">
         <f>C8/C4</f>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I25" s="30">
         <f>SUM(I21:I24)</f>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C26" s="38" t="e">
         <f>C16/C4</f>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="G26" s="39"/>
       <c r="H26" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I26" s="16">
         <f>I25/I20</f>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C27" s="38" t="e">
         <f>C18/C4</f>
@@ -3684,10 +3684,10 @@
     </row>
     <row r="28" spans="7:10">
       <c r="G28" s="40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I28" s="46">
         <v>0.1</v>
@@ -3697,7 +3697,7 @@
     <row r="29" spans="7:10">
       <c r="G29" s="41"/>
       <c r="H29" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I29" s="46">
         <v>0.04</v>
@@ -3710,7 +3710,7 @@
     <row r="30" spans="7:10">
       <c r="G30" s="41"/>
       <c r="H30" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I30" s="46">
         <v>0.02</v>
@@ -3723,7 +3723,7 @@
     <row r="31" spans="7:10">
       <c r="G31" s="41"/>
       <c r="H31" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I31" s="13">
         <f>(C18*POWER(1+I28,3))*J29</f>
@@ -3737,7 +3737,7 @@
     <row r="32" spans="7:10">
       <c r="G32" s="41"/>
       <c r="H32" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I32" s="13">
         <f>I31*0.7</f>
@@ -3751,7 +3751,7 @@
     <row r="33" spans="7:10">
       <c r="G33" s="42"/>
       <c r="H33" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I33" s="13">
         <f>(C18*POWER(1+I28,3))*J30</f>
@@ -3782,7 +3782,7 @@
   <sheetPr/>
   <dimension ref="B3:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -3814,15 +3814,15 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>0</v>
@@ -3951,7 +3951,7 @@
     <row r="9" spans="2:10">
       <c r="B9" s="10"/>
       <c r="C9" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9" s="12">
         <f>'利润&amp;现金流结构分析'!C5</f>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I9" s="12">
         <f>D9</f>
@@ -3979,13 +3979,13 @@
     <row r="10" spans="2:10">
       <c r="B10" s="10"/>
       <c r="C10" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="H10" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -3993,7 +3993,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="10"/>
       <c r="C11" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D11" s="12">
         <v>12.74</v>
@@ -4005,7 +4005,7 @@
         <v>10.36</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I11" s="12">
         <f>D11</f>
@@ -4018,7 +4018,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="10"/>
       <c r="C12" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D12" s="12">
         <f>'利润&amp;现金流结构分析'!C21</f>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I12" s="12">
         <f>D12</f>
@@ -4046,7 +4046,7 @@
     <row r="13" spans="2:10">
       <c r="B13" s="10"/>
       <c r="C13" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D13" s="12">
         <f>'利润&amp;现金流结构分析'!I4</f>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I13" s="12">
         <f>D13</f>
@@ -4074,7 +4074,7 @@
     <row r="14" spans="2:10">
       <c r="B14" s="10"/>
       <c r="C14" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D14" s="13">
         <v>1.2901867163</v>
@@ -4086,7 +4086,7 @@
         <v>0.597041</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I14" s="13">
         <v>1.2901867163</v>
@@ -4126,22 +4126,22 @@
     <row r="16" spans="2:10">
       <c r="B16" s="10"/>
       <c r="C16" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D16" s="13">
-        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D20</f>
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D21</f>
         <v>0</v>
       </c>
       <c r="E16" s="13">
-        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E20</f>
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E21</f>
         <v>0</v>
       </c>
       <c r="F16" s="13">
-        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F20</f>
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F21</f>
         <v>0</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I16" s="13">
         <f>D16</f>
@@ -4153,149 +4153,149 @@
     </row>
     <row r="22" ht="16.05" spans="3:4">
       <c r="C22" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" ht="16.05" spans="2:8">
       <c r="B24" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" ht="16.05" spans="2:8">
       <c r="B25" s="19"/>
       <c r="C25" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" ht="16.05" spans="2:8">
       <c r="B26" s="19"/>
       <c r="C26" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" ht="16.05" spans="2:8">
       <c r="B27" s="19"/>
       <c r="C27" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" ht="16.05" spans="2:8">
       <c r="B28" s="19"/>
       <c r="C28" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" ht="16.05" spans="2:8">
       <c r="B29" s="19"/>
       <c r="C29" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" ht="16.05" spans="2:8">
       <c r="B30" s="19"/>
       <c r="C30" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" ht="16.05" spans="2:4">
       <c r="B31" s="19"/>
       <c r="C31" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" ht="16.05" spans="2:4">
       <c r="B32" s="19"/>
       <c r="C32" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" ht="16.05" spans="2:4">
       <c r="B33" s="20"/>
       <c r="C33" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4330,79 +4330,79 @@
   <sheetData>
     <row r="2" ht="18.25" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" ht="18.25" spans="2:8">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" ht="18.25" spans="2:8">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" ht="18.25" spans="2:8">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" ht="18.25" spans="2:8">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4411,10 +4411,10 @@
     </row>
     <row r="7" ht="18.25" spans="7:8">
       <c r="G7" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/funds/stocks/财管&财务报表同型分析.xlsx
+++ b/funds/stocks/财管&财务报表同型分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20603" windowHeight="8495" activeTab="2"/>
+    <workbookView windowWidth="20603" windowHeight="8495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="资产&amp;负债结构分析" sheetId="2" r:id="rId1"/>
@@ -644,14 +644,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="\+0;\-0;0;@"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -727,13 +727,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -755,9 +748,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,31 +840,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,52 +860,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -902,13 +902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,19 +932,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,13 +956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,7 +974,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +986,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,13 +1022,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,67 +1076,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,15 +1148,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1172,6 +1163,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1183,6 +1183,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,30 +1237,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1236,15 +1245,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1253,10 +1253,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1265,133 +1265,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1495,7 +1495,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1507,7 +1507,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1525,7 +1525,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3149,8 +3149,8 @@
   <sheetPr/>
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3500,7 +3500,7 @@
         <v>127</v>
       </c>
       <c r="I20" s="45">
-        <v>9.88</v>
+        <v>60.83</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="I26" s="16">
         <f>I25/I20</f>
-        <v>-0.00303643724696356</v>
+        <v>-0.000493177708367582</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -3782,8 +3782,8 @@
   <sheetPr/>
   <dimension ref="B3:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>

--- a/funds/stocks/财管&财务报表同型分析.xlsx
+++ b/funds/stocks/财管&财务报表同型分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20603" windowHeight="8495" activeTab="3"/>
+    <workbookView windowWidth="20603" windowHeight="8495"/>
   </bookViews>
   <sheets>
     <sheet name="资产&amp;负债结构分析" sheetId="2" r:id="rId1"/>
@@ -644,14 +644,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="\+0;\-0;0;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -720,6 +720,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -735,9 +779,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -748,8 +800,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,6 +824,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -770,39 +832,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -817,46 +856,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -902,7 +902,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,7 +1004,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,13 +1028,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,145 +1076,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,6 +1148,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1189,18 +1198,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1237,10 +1239,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1253,10 +1253,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1265,133 +1265,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1477,9 +1477,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1507,7 +1504,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1525,7 +1522,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1891,8 +1891,8 @@
   <sheetPr/>
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -1954,82 +1954,172 @@
       <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F4</f>
+        <v>0</v>
+      </c>
       <c r="H4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
+      <c r="J4" s="53">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J18</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="53">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K18</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="53">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L18</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="23"/>
       <c r="C5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="D5" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D6</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F6</f>
+        <v>0</v>
+      </c>
       <c r="H5" s="23"/>
       <c r="I5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="J5" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J4</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K4</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="23"/>
       <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="D6" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D7</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E7</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F7</f>
+        <v>0</v>
+      </c>
       <c r="H6" s="23"/>
       <c r="I6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="J6" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J5</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K5</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="23"/>
       <c r="C7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="D7" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D8</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E8</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F8</f>
+        <v>0</v>
+      </c>
       <c r="H7" s="23"/>
       <c r="I7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="27"/>
+      <c r="J7" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J9</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K9</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="23"/>
       <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="D8" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E9</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F9</f>
+        <v>0</v>
+      </c>
       <c r="H8" s="23"/>
       <c r="I8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="J8" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J7</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K7</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L7</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="23"/>
@@ -2038,14 +2128,23 @@
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="27"/>
+      <c r="F9" s="43"/>
       <c r="H9" s="23"/>
       <c r="I9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="J9" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J8</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K8</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L8</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="23"/>
@@ -2095,7 +2194,7 @@
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="43"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="23"/>
@@ -2206,9 +2305,18 @@
       <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="D15" s="57">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D12</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="57">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E12</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="57">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F12</f>
+        <v>0</v>
+      </c>
       <c r="H15" s="23"/>
       <c r="I15" s="24" t="s">
         <v>27</v>
@@ -2256,9 +2364,18 @@
       <c r="C17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="D17" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D5</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E5</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F5</f>
+        <v>0</v>
+      </c>
       <c r="H17" s="23"/>
       <c r="I17" s="24" t="s">
         <v>31</v>
@@ -2315,25 +2432,52 @@
       <c r="I19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
+      <c r="J19" s="53">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J17</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="53">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K17</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="53">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L17</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="23"/>
       <c r="C20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="D20" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D10</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E10</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F10</f>
+        <v>0</v>
+      </c>
       <c r="H20" s="23"/>
       <c r="I20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
+      <c r="J20" s="53">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J16</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="53">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K16</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="53">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L16</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="23"/>
@@ -2347,9 +2491,18 @@
       <c r="I21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
+      <c r="J21" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J10</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K10</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="23"/>
@@ -2363,18 +2516,36 @@
       <c r="I22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
+      <c r="J22" s="53">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="53">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K11</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="53">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="23"/>
       <c r="C23" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
+      <c r="D23" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D20</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E20</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="22">
+        <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F20</f>
+        <v>0</v>
+      </c>
       <c r="H23" s="23"/>
       <c r="I23" s="22" t="s">
         <v>44</v>
@@ -2676,8 +2847,8 @@
   <sheetPr/>
   <dimension ref="B2:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:L20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -2831,7 +3002,7 @@
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="43"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="23"/>
@@ -3094,7 +3265,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="23"/>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="31" t="s">
         <v>89</v>
       </c>
       <c r="J23" s="55" t="e">
@@ -3112,7 +3283,7 @@
     </row>
     <row r="24" spans="8:12">
       <c r="H24" s="23"/>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="31" t="s">
         <v>90</v>
       </c>
       <c r="J24" s="55" t="e">
@@ -3150,7 +3321,7 @@
   <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="I3" sqref="I3:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3219,7 +3390,7 @@
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
-      <c r="L4" s="43"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="22" t="s">
@@ -3313,7 +3484,7 @@
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="27"/>
+      <c r="K10" s="43"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="22" t="s">
@@ -3390,14 +3561,14 @@
       <c r="B15" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="22" t="s">
@@ -3406,18 +3577,18 @@
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="29">
         <f>SUM(I14:K14)/3</f>
         <v>0</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="22" t="s">
@@ -3426,15 +3597,15 @@
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="30" t="s">
+      <c r="G17" s="30"/>
+      <c r="H17" s="29" t="s">
         <v>121</v>
       </c>
       <c r="I17" s="44">
         <v>0.08</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="22" t="s">
@@ -3443,247 +3614,247 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="30" t="s">
+      <c r="G18" s="30"/>
+      <c r="H18" s="29" t="s">
         <v>123</v>
       </c>
       <c r="I18" s="44">
         <v>0.03</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="31">
         <f>C4-C5</f>
         <v>0</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="31">
         <f>D4-D5</f>
         <v>0</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="31">
         <f>E4-E5</f>
         <v>0</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="30" t="s">
+      <c r="G19" s="30"/>
+      <c r="H19" s="29" t="s">
         <v>125</v>
       </c>
       <c r="I19" s="44">
         <v>0.1</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="33" t="e">
+      <c r="C20" s="32" t="e">
         <f>C19/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D20" s="33" t="e">
+      <c r="D20" s="32" t="e">
         <f>D19/D4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="33" t="e">
+      <c r="E20" s="32" t="e">
         <f>E19/E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="30" t="s">
+      <c r="G20" s="30"/>
+      <c r="H20" s="29" t="s">
         <v>127</v>
       </c>
       <c r="I20" s="45">
-        <v>60.83</v>
-      </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="33">
         <f>C4-C5-C6-C7-C8-C9-C10</f>
         <v>0</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="33">
         <f>D4-D5-D6-D7-D8-D9-D10</f>
         <v>0</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="33">
         <f>E4-E5-E6-E7-E8-E9-E10</f>
         <v>0</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="30" t="s">
+      <c r="G21" s="30"/>
+      <c r="H21" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="29">
         <f>I16*(1+I19)/POWER(1+I17,1)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="35" t="e">
+      <c r="C22" s="34" t="e">
         <f>C21/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D22" s="35" t="e">
+      <c r="D22" s="34" t="e">
         <f>D21/D4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="35" t="e">
+      <c r="E22" s="34" t="e">
         <f>E21/E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="30" t="s">
+      <c r="G22" s="30"/>
+      <c r="H22" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="29">
         <f>I16*POWER(1+I19,2)/POWER(1+I17,2)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="37" t="e">
+      <c r="C23" s="36" t="e">
         <f>C21/I4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="37" t="e">
+      <c r="D23" s="36" t="e">
         <f>D21/J4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="37" t="e">
+      <c r="E23" s="36" t="e">
         <f>E21/K4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="30" t="s">
+      <c r="G23" s="30"/>
+      <c r="H23" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="29">
         <f>I16*POWER(1+I19,3)/POWER(1+I17,3)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="38" t="e">
+      <c r="C24" s="37" t="e">
         <f>C7/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="38" t="e">
+      <c r="D24" s="37" t="e">
         <f>D7/D4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="38" t="e">
+      <c r="E24" s="37" t="e">
         <f>E7/E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="30" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="29">
         <f>(SUM(I21:I23)*(1+I18))/I17-I18</f>
         <v>-0.03</v>
       </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="38" t="e">
+      <c r="C25" s="37" t="e">
         <f>C8/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="38" t="e">
+      <c r="D25" s="37" t="e">
         <f>D8/D4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="38" t="e">
+      <c r="E25" s="37" t="e">
         <f>E8/E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="30" t="s">
+      <c r="G25" s="30"/>
+      <c r="H25" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="29">
         <f>SUM(I21:I24)</f>
         <v>-0.03</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="38" t="e">
+      <c r="C26" s="37" t="e">
         <f>C16/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="38" t="e">
+      <c r="D26" s="37" t="e">
         <f>D16/D4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="38" t="e">
+      <c r="E26" s="37" t="e">
         <f>E16/E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="39"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="16" t="s">
         <v>139</v>
       </c>
       <c r="I26" s="16">
         <f>I25/I20</f>
-        <v>-0.000493177708367582</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="38" t="e">
+      <c r="C27" s="37" t="e">
         <f>C18/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="38" t="e">
+      <c r="D27" s="37" t="e">
         <f>D18/D4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="38" t="e">
+      <c r="E27" s="37" t="e">
         <f>E18/E4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="7:10">
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="39" t="s">
         <v>141</v>
       </c>
       <c r="H28" s="13" t="s">
@@ -3695,7 +3866,7 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="7:10">
-      <c r="G29" s="41"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="13" t="s">
         <v>143</v>
       </c>
@@ -3708,7 +3879,7 @@
       </c>
     </row>
     <row r="30" spans="7:10">
-      <c r="G30" s="41"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="13" t="s">
         <v>144</v>
       </c>
@@ -3721,7 +3892,7 @@
       </c>
     </row>
     <row r="31" spans="7:10">
-      <c r="G31" s="41"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="13" t="s">
         <v>145</v>
       </c>
@@ -3735,7 +3906,7 @@
       </c>
     </row>
     <row r="32" spans="7:10">
-      <c r="G32" s="41"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="13" t="s">
         <v>146</v>
       </c>
@@ -3749,7 +3920,7 @@
       </c>
     </row>
     <row r="33" spans="7:10">
-      <c r="G33" s="42"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="13" t="s">
         <v>147</v>
       </c>
@@ -3782,8 +3953,8 @@
   <sheetPr/>
   <dimension ref="B3:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3861,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="11">
-        <v>0.4988442046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -3888,8 +4059,8 @@
         <f>D6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="12">
-        <v>0.0299476521</v>
+      <c r="J6" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -3916,8 +4087,8 @@
         <f>D7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="12">
-        <v>1.5955254148</v>
+      <c r="J7" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -3944,8 +4115,8 @@
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="12">
-        <v>0.4077053511</v>
+      <c r="J8" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -3972,8 +4143,8 @@
         <f>D9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="12">
-        <v>0.2695451313</v>
+      <c r="J9" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -3988,31 +4159,25 @@
         <v>151</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="10"/>
       <c r="C11" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="12">
-        <v>12.74</v>
-      </c>
-      <c r="E11" s="12">
-        <v>12.81</v>
-      </c>
-      <c r="F11" s="12">
-        <v>10.36</v>
-      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="H11" s="12" t="s">
         <v>152</v>
       </c>
       <c r="I11" s="12">
         <f>D11</f>
-        <v>12.74</v>
-      </c>
-      <c r="J11" s="12">
-        <v>-0.045803108</v>
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -4039,8 +4204,8 @@
         <f>D12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="12">
-        <v>-1.070719455</v>
+      <c r="J12" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -4067,8 +4232,8 @@
         <f>D13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="12">
-        <v>0.5914757405</v>
+      <c r="J13" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -4076,23 +4241,17 @@
       <c r="C14" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="13">
-        <v>1.2901867163</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.736342833</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0.597041</v>
-      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
       <c r="H14" s="13" t="s">
         <v>153</v>
       </c>
       <c r="I14" s="13">
         <v>1.2901867163</v>
       </c>
-      <c r="J14" s="13">
-        <v>1.4334530257</v>
+      <c r="J14" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -4119,8 +4278,8 @@
         <f>D15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="13">
-        <v>134.3845945702</v>
+      <c r="J15" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -4147,8 +4306,8 @@
         <f>D16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="13">
-        <v>139.6576402838</v>
+      <c r="J16" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="22" ht="16.05" spans="3:4">

--- a/funds/stocks/财管&财务报表同型分析.xlsx
+++ b/funds/stocks/财管&财务报表同型分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20603" windowHeight="8495"/>
+    <workbookView windowWidth="20603" windowHeight="8495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="资产&amp;负债结构分析" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="210">
   <si>
     <t>项目</t>
   </si>
@@ -381,22 +381,34 @@
     <t>自由现金流均值(FCF)</t>
   </si>
   <si>
+    <t>EBIT</t>
+  </si>
+  <si>
     <t>营业外支出</t>
   </si>
   <si>
     <t>折现率(r)</t>
   </si>
   <si>
+    <t>经营杠杆</t>
+  </si>
+  <si>
     <t>持续经营净利润</t>
   </si>
   <si>
     <t>永续年金增长率(g)</t>
   </si>
   <si>
+    <t>财务杠杆</t>
+  </si>
+  <si>
     <t>毛利</t>
   </si>
   <si>
     <t>自由现金流增长率(G)</t>
+  </si>
+  <si>
+    <t>总杠杆</t>
   </si>
   <si>
     <t>毛利率</t>
@@ -644,14 +656,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="\+0;\-0;0;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -720,7 +732,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,8 +769,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,87 +852,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -848,18 +867,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -902,7 +914,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,7 +950,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,109 +1028,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,31 +1052,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,6 +1077,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,9 +1162,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,8 +1189,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1198,26 +1227,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1236,15 +1257,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1253,10 +1265,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1265,137 +1277,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1438,7 +1450,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1492,7 +1504,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1504,7 +1516,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1522,10 +1534,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1891,7 +1906,7 @@
   <sheetPr/>
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -1972,15 +1987,15 @@
       <c r="I4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="53">
+      <c r="J4" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J18</f>
         <v>0</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K18</f>
         <v>0</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L4" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L18</f>
         <v>0</v>
       </c>
@@ -2151,15 +2166,15 @@
       <c r="C10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="56" t="e">
+      <c r="D10" s="57" t="e">
         <f>D4/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="56" t="e">
+      <c r="E10" s="57" t="e">
         <f>E4/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="56" t="e">
+      <c r="F10" s="57" t="e">
         <f>F4/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2176,15 +2191,15 @@
       <c r="C11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="56" t="e">
+      <c r="D11" s="57" t="e">
         <f>D5/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E11" s="56" t="e">
+      <c r="E11" s="57" t="e">
         <f>E5/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="56" t="e">
+      <c r="F11" s="57" t="e">
         <f>F5/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2201,15 +2216,15 @@
       <c r="C12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="56" t="e">
+      <c r="D12" s="57" t="e">
         <f>D6/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E12" s="56" t="e">
+      <c r="E12" s="57" t="e">
         <f>E6/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="56" t="e">
+      <c r="F12" s="57" t="e">
         <f>F6/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2217,15 +2232,15 @@
       <c r="I12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="56" t="e">
+      <c r="J12" s="57" t="e">
         <f t="shared" ref="J12:L12" si="0">J4/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="56" t="e">
+      <c r="K12" s="57" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="56" t="e">
+      <c r="L12" s="57" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2235,15 +2250,15 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="56" t="e">
+      <c r="D13" s="57" t="e">
         <f>D7/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E13" s="56" t="e">
+      <c r="E13" s="57" t="e">
         <f>E7/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="56" t="e">
+      <c r="F13" s="57" t="e">
         <f>F7/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2251,15 +2266,15 @@
       <c r="I13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="56" t="e">
+      <c r="J13" s="57" t="e">
         <f t="shared" ref="J13:L13" si="1">J5/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="56" t="e">
+      <c r="K13" s="57" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="56" t="e">
+      <c r="L13" s="57" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2269,15 +2284,15 @@
       <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="56" t="e">
+      <c r="D14" s="57" t="e">
         <f>D8/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E14" s="56" t="e">
+      <c r="E14" s="57" t="e">
         <f>E8/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="56" t="e">
+      <c r="F14" s="57" t="e">
         <f>F8/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2285,15 +2300,15 @@
       <c r="I14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="56" t="e">
+      <c r="J14" s="57" t="e">
         <f t="shared" ref="J14:L14" si="2">J6/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="56" t="e">
+      <c r="K14" s="57" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="56" t="e">
+      <c r="L14" s="57" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2305,15 +2320,15 @@
       <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="58">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D12</f>
         <v>0</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="58">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E12</f>
         <v>0</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="58">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F12</f>
         <v>0</v>
       </c>
@@ -2321,15 +2336,15 @@
       <c r="I15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="56" t="e">
+      <c r="J15" s="57" t="e">
         <f t="shared" ref="J15:L15" si="3">J7/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="56" t="e">
+      <c r="K15" s="57" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="56" t="e">
+      <c r="L15" s="57" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2346,15 +2361,15 @@
       <c r="I16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="56" t="e">
+      <c r="J16" s="57" t="e">
         <f t="shared" ref="J16:L16" si="4">J8/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="56" t="e">
+      <c r="K16" s="57" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="56" t="e">
+      <c r="L16" s="57" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -2380,15 +2395,15 @@
       <c r="I17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="56" t="e">
+      <c r="J17" s="57" t="e">
         <f t="shared" ref="J17:L17" si="5">J9/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="56" t="e">
+      <c r="K17" s="57" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="56" t="e">
+      <c r="L17" s="57" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -2405,15 +2420,15 @@
       <c r="I18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="56" t="e">
+      <c r="J18" s="57" t="e">
         <f t="shared" ref="J18:L18" si="6">J10/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="56" t="e">
+      <c r="K18" s="57" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="56" t="e">
+      <c r="L18" s="57" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2432,15 +2447,15 @@
       <c r="I19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J17</f>
         <v>0</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K17</f>
         <v>0</v>
       </c>
-      <c r="L19" s="53">
+      <c r="L19" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L17</f>
         <v>0</v>
       </c>
@@ -2466,15 +2481,15 @@
       <c r="I20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J20" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J16</f>
         <v>0</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K16</f>
         <v>0</v>
       </c>
-      <c r="L20" s="53">
+      <c r="L20" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L16</f>
         <v>0</v>
       </c>
@@ -2516,15 +2531,15 @@
       <c r="I22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="53">
+      <c r="J22" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J11</f>
         <v>0</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K11</f>
         <v>0</v>
       </c>
-      <c r="L22" s="53">
+      <c r="L22" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L11</f>
         <v>0</v>
       </c>
@@ -2575,15 +2590,15 @@
       <c r="C25" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="56" t="e">
+      <c r="D25" s="57" t="e">
         <f>D15/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="56" t="e">
+      <c r="E25" s="57" t="e">
         <f>E15/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="56" t="e">
+      <c r="F25" s="57" t="e">
         <f>F15/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2591,15 +2606,15 @@
       <c r="I25" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="56" t="e">
+      <c r="J25" s="57" t="e">
         <f t="shared" ref="J25:L25" si="7">J4/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="56" t="e">
+      <c r="K25" s="57" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="56" t="e">
+      <c r="L25" s="57" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -2609,15 +2624,15 @@
       <c r="C26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="56" t="e">
+      <c r="D26" s="57" t="e">
         <f>D16/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="56" t="e">
+      <c r="E26" s="57" t="e">
         <f>E16/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="56" t="e">
+      <c r="F26" s="57" t="e">
         <f>F16/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2625,15 +2640,15 @@
       <c r="I26" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="56" t="e">
+      <c r="J26" s="57" t="e">
         <f t="shared" ref="J26:L26" si="8">J19/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="56" t="e">
+      <c r="K26" s="57" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="56" t="e">
+      <c r="L26" s="57" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -2643,15 +2658,15 @@
       <c r="C27" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="56" t="e">
+      <c r="D27" s="57" t="e">
         <f>D17/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="56" t="e">
+      <c r="E27" s="57" t="e">
         <f>E17/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="56" t="e">
+      <c r="F27" s="57" t="e">
         <f>F17/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2659,15 +2674,15 @@
       <c r="I27" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="56" t="e">
+      <c r="J27" s="57" t="e">
         <f t="shared" ref="J27:L27" si="9">J20/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="56" t="e">
+      <c r="K27" s="57" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="56" t="e">
+      <c r="L27" s="57" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -2677,15 +2692,15 @@
       <c r="C28" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="56" t="e">
+      <c r="D28" s="57" t="e">
         <f>D18/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="56" t="e">
+      <c r="E28" s="57" t="e">
         <f>E18/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="56" t="e">
+      <c r="F28" s="57" t="e">
         <f>F18/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2693,15 +2708,15 @@
       <c r="I28" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J28" s="56" t="e">
+      <c r="J28" s="57" t="e">
         <f t="shared" ref="J28:L28" si="10">J21/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="56" t="e">
+      <c r="K28" s="57" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="56" t="e">
+      <c r="L28" s="57" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
@@ -2711,15 +2726,15 @@
       <c r="C29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="56" t="e">
+      <c r="D29" s="57" t="e">
         <f>D19/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="56" t="e">
+      <c r="E29" s="57" t="e">
         <f>E19/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="56" t="e">
+      <c r="F29" s="57" t="e">
         <f>F19/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2727,15 +2742,15 @@
       <c r="I29" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="56" t="e">
+      <c r="J29" s="57" t="e">
         <f t="shared" ref="J29:L29" si="11">J22/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="56" t="e">
+      <c r="K29" s="57" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="56" t="e">
+      <c r="L29" s="57" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -2745,15 +2760,15 @@
       <c r="C30" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="56" t="e">
+      <c r="D30" s="57" t="e">
         <f>D20/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="56" t="e">
+      <c r="E30" s="57" t="e">
         <f>E20/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="56" t="e">
+      <c r="F30" s="57" t="e">
         <f>F20/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2761,15 +2776,15 @@
       <c r="I30" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="56" t="e">
+      <c r="J30" s="57" t="e">
         <f t="shared" ref="J30:L30" si="12">J23/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="56" t="e">
+      <c r="K30" s="57" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="56" t="e">
+      <c r="L30" s="57" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -2779,15 +2794,15 @@
       <c r="C31" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="56" t="e">
+      <c r="D31" s="57" t="e">
         <f>D21/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="56" t="e">
+      <c r="E31" s="57" t="e">
         <f>E21/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="56" t="e">
+      <c r="F31" s="57" t="e">
         <f>F21/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2797,15 +2812,15 @@
       <c r="C32" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="56" t="e">
+      <c r="D32" s="57" t="e">
         <f>D22/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="56" t="e">
+      <c r="E32" s="57" t="e">
         <f>E22/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="56" t="e">
+      <c r="F32" s="57" t="e">
         <f>F22/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2815,15 +2830,15 @@
       <c r="C33" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="56" t="e">
+      <c r="D33" s="57" t="e">
         <f t="shared" ref="D33:F33" si="13">D23/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="56" t="e">
+      <c r="E33" s="57" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F33" s="56" t="e">
+      <c r="F33" s="57" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -3021,7 +3036,7 @@
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="48" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -3031,15 +3046,15 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="48"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="12" t="s">
         <v>26</v>
       </c>
@@ -3057,7 +3072,7 @@
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="48"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="12" t="s">
         <v>69</v>
       </c>
@@ -3073,7 +3088,7 @@
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="48"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="12" t="s">
         <v>71</v>
       </c>
@@ -3089,7 +3104,7 @@
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="48"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="12" t="s">
         <v>73</v>
       </c>
@@ -3105,7 +3120,7 @@
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="48"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="12" t="s">
         <v>75</v>
       </c>
@@ -3121,7 +3136,7 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="48"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="12" t="s">
         <v>77</v>
       </c>
@@ -3137,7 +3152,7 @@
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="48"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="12" t="s">
         <v>78</v>
       </c>
@@ -3153,7 +3168,7 @@
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="48"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="12" t="s">
         <v>79</v>
       </c>
@@ -3169,14 +3184,14 @@
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="49"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="H20" s="50"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="13" t="s">
         <v>81</v>
       </c>
@@ -3185,7 +3200,7 @@
       <c r="L20" s="13"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="50"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="13" t="s">
         <v>82</v>
       </c>
@@ -3195,18 +3210,18 @@
       <c r="H21" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="54" t="e">
+      <c r="J21" s="55" t="e">
         <f t="shared" ref="J21:L21" si="0">SUM(J4:J11)/J20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="54" t="e">
+      <c r="K21" s="55" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="54" t="e">
+      <c r="L21" s="55" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -3215,52 +3230,52 @@
       <c r="B22" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="52" t="e">
+      <c r="D22" s="53" t="e">
         <f>SUM(D4:D10)/D21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="52" t="e">
+      <c r="E22" s="53" t="e">
         <f>SUM(E4:E10)/E21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="52" t="e">
+      <c r="F22" s="53" t="e">
         <f>SUM(F4:F10)/F21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="51" t="s">
+      <c r="I22" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="54" t="e">
+      <c r="J22" s="55" t="e">
         <f t="shared" ref="J22:L22" si="1">SUM(J12:J19)/J20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="54" t="e">
+      <c r="K22" s="55" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="54" t="e">
+      <c r="L22" s="55" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="23"/>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="52" t="e">
+      <c r="D23" s="53" t="e">
         <f>SUM(D11:D20)/D21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="52" t="e">
+      <c r="E23" s="53" t="e">
         <f>SUM(E11:E20)/E21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="52" t="e">
+      <c r="F23" s="53" t="e">
         <f>SUM(F11:F20)/F21</f>
         <v>#DIV/0!</v>
       </c>
@@ -3268,15 +3283,15 @@
       <c r="I23" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="55" t="e">
+      <c r="J23" s="56" t="e">
         <f t="shared" ref="J23:L23" si="2">SUM(J4:J11)/D21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="55" t="e">
+      <c r="K23" s="56" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="55" t="e">
+      <c r="L23" s="56" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -3286,15 +3301,15 @@
       <c r="I24" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="55" t="e">
+      <c r="J24" s="56" t="e">
         <f t="shared" ref="J24:L24" si="3">SUM(J12:J19)/D21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="55" t="e">
+      <c r="K24" s="56" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="55" t="e">
+      <c r="L24" s="56" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3320,8 +3335,8 @@
   <sheetPr/>
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3570,7 +3585,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:12">
       <c r="B16" s="22" t="s">
         <v>117</v>
       </c>
@@ -3588,45 +3603,63 @@
         <v>0</v>
       </c>
       <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="2:11">
+      <c r="K16" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" s="44">
+        <f>C18+C10+C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="G17" s="30"/>
       <c r="H17" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17" s="44">
+        <v>122</v>
+      </c>
+      <c r="I17" s="45">
         <v>0.08</v>
       </c>
       <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="2:11">
+      <c r="K17" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="44" t="e">
+        <f>(L16+C7+C8+C9)/L16</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="G18" s="30"/>
       <c r="H18" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="44">
+        <v>125</v>
+      </c>
+      <c r="I18" s="45">
         <v>0.03</v>
       </c>
       <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-    </row>
-    <row r="19" spans="2:11">
+      <c r="K18" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="44" t="e">
+        <f>L16/(L16-C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="31" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C19" s="31">
         <f>C4-C5</f>
@@ -3642,17 +3675,23 @@
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="44">
+        <v>128</v>
+      </c>
+      <c r="I19" s="45">
         <v>0.1</v>
       </c>
       <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
+      <c r="K19" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="44" t="e">
+        <f>L17*L18</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C20" s="32" t="e">
         <f>C19/C4</f>
@@ -3668,9 +3707,9 @@
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="45">
+        <v>131</v>
+      </c>
+      <c r="I20" s="46">
         <v>100</v>
       </c>
       <c r="J20" s="27"/>
@@ -3678,7 +3717,7 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C21" s="33">
         <f>C4-C5-C6-C7-C8-C9-C10</f>
@@ -3694,7 +3733,7 @@
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="29" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I21" s="29">
         <f>I16*(1+I19)/POWER(1+I17,1)</f>
@@ -3705,7 +3744,7 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="33" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C22" s="34" t="e">
         <f>C21/C4</f>
@@ -3721,7 +3760,7 @@
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I22" s="29">
         <f>I16*POWER(1+I19,2)/POWER(1+I17,2)</f>
@@ -3732,7 +3771,7 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="35" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C23" s="36" t="e">
         <f>C21/I4</f>
@@ -3748,7 +3787,7 @@
       </c>
       <c r="G23" s="30"/>
       <c r="H23" s="29" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I23" s="29">
         <f>I16*POWER(1+I19,3)/POWER(1+I17,3)</f>
@@ -3759,7 +3798,7 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="24" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C24" s="37" t="e">
         <f>C7/C4</f>
@@ -3775,7 +3814,7 @@
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="29" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I24" s="29">
         <f>(SUM(I21:I23)*(1+I18))/I17-I18</f>
@@ -3786,7 +3825,7 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="24" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C25" s="37" t="e">
         <f>C8/C4</f>
@@ -3802,7 +3841,7 @@
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="29" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I25" s="29">
         <f>SUM(I21:I24)</f>
@@ -3813,7 +3852,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="24" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C26" s="37" t="e">
         <f>C16/C4</f>
@@ -3829,7 +3868,7 @@
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I26" s="16">
         <f>I25/I20</f>
@@ -3838,7 +3877,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C27" s="37" t="e">
         <f>C18/C4</f>
@@ -3855,12 +3894,12 @@
     </row>
     <row r="28" spans="7:10">
       <c r="G28" s="39" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="46">
+        <v>146</v>
+      </c>
+      <c r="I28" s="47">
         <v>0.1</v>
       </c>
       <c r="J28" s="22"/>
@@ -3868,9 +3907,9 @@
     <row r="29" spans="7:10">
       <c r="G29" s="40"/>
       <c r="H29" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I29" s="46">
+        <v>147</v>
+      </c>
+      <c r="I29" s="47">
         <v>0.04</v>
       </c>
       <c r="J29" s="13">
@@ -3881,9 +3920,9 @@
     <row r="30" spans="7:10">
       <c r="G30" s="40"/>
       <c r="H30" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="46">
+        <v>148</v>
+      </c>
+      <c r="I30" s="47">
         <v>0.02</v>
       </c>
       <c r="J30" s="13">
@@ -3894,7 +3933,7 @@
     <row r="31" spans="7:10">
       <c r="G31" s="40"/>
       <c r="H31" s="13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I31" s="13">
         <f>(C18*POWER(1+I28,3))*J29</f>
@@ -3908,7 +3947,7 @@
     <row r="32" spans="7:10">
       <c r="G32" s="40"/>
       <c r="H32" s="13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I32" s="13">
         <f>I31*0.7</f>
@@ -3922,7 +3961,7 @@
     <row r="33" spans="7:10">
       <c r="G33" s="41"/>
       <c r="H33" s="13" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I33" s="13">
         <f>(C18*POWER(1+I28,3))*J30</f>
@@ -3985,15 +4024,15 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>0</v>
@@ -4150,13 +4189,13 @@
     <row r="10" spans="2:10">
       <c r="B10" s="10"/>
       <c r="C10" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="H10" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="11"/>
@@ -4164,13 +4203,13 @@
     <row r="11" spans="2:10">
       <c r="B11" s="10"/>
       <c r="C11" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I11" s="12">
         <f>D11</f>
@@ -4183,7 +4222,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="10"/>
       <c r="C12" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D12" s="12">
         <f>'利润&amp;现金流结构分析'!C21</f>
@@ -4198,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I12" s="12">
         <f>D12</f>
@@ -4239,13 +4278,13 @@
     <row r="14" spans="2:10">
       <c r="B14" s="10"/>
       <c r="C14" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="H14" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I14" s="13">
         <v>1.2901867163</v>
@@ -4285,7 +4324,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="10"/>
       <c r="C16" s="13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D16" s="13">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D21</f>
@@ -4300,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I16" s="13">
         <f>D16</f>
@@ -4312,149 +4351,149 @@
     </row>
     <row r="22" ht="16.05" spans="3:4">
       <c r="C22" s="15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" ht="16.05" spans="2:8">
       <c r="B24" s="17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" ht="16.05" spans="2:8">
       <c r="B25" s="19"/>
       <c r="C25" s="15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" ht="16.05" spans="2:8">
       <c r="B26" s="19"/>
       <c r="C26" s="15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" ht="16.05" spans="2:8">
       <c r="B27" s="19"/>
       <c r="C27" s="15" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" ht="16.05" spans="2:8">
       <c r="B28" s="19"/>
       <c r="C28" s="15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" ht="16.05" spans="2:8">
       <c r="B29" s="19"/>
       <c r="C29" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" ht="16.05" spans="2:8">
       <c r="B30" s="19"/>
       <c r="C30" s="15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" ht="16.05" spans="2:4">
       <c r="B31" s="19"/>
       <c r="C31" s="15" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" ht="16.05" spans="2:4">
       <c r="B32" s="19"/>
       <c r="C32" s="15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" ht="16.05" spans="2:4">
       <c r="B33" s="20"/>
       <c r="C33" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4489,29 +4528,29 @@
   <sheetData>
     <row r="2" ht="18.25" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" ht="18.25" spans="2:8">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>62</v>
@@ -4519,10 +4558,10 @@
       <c r="E3" s="4"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" ht="18.25" spans="2:8">
@@ -4534,34 +4573,34 @@
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" ht="18.25" spans="2:8">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" ht="18.25" spans="2:8">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4570,10 +4609,10 @@
     </row>
     <row r="7" ht="18.25" spans="7:8">
       <c r="G7" s="6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/funds/stocks/财管&财务报表同型分析.xlsx
+++ b/funds/stocks/财管&财务报表同型分析.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="210">
   <si>
     <t>项目</t>
   </si>
@@ -381,40 +381,40 @@
     <t>自由现金流均值(FCF)</t>
   </si>
   <si>
+    <t>营业外支出</t>
+  </si>
+  <si>
+    <t>折现率(r)</t>
+  </si>
+  <si>
     <t>EBIT</t>
   </si>
   <si>
-    <t>营业外支出</t>
-  </si>
-  <si>
-    <t>折现率(r)</t>
+    <t>持续经营净利润</t>
+  </si>
+  <si>
+    <t>永续年金增长率(g)</t>
   </si>
   <si>
     <t>经营杠杆</t>
   </si>
   <si>
-    <t>持续经营净利润</t>
-  </si>
-  <si>
-    <t>永续年金增长率(g)</t>
+    <t>毛利</t>
+  </si>
+  <si>
+    <t>自由现金流增长率(G)</t>
   </si>
   <si>
     <t>财务杠杆</t>
   </si>
   <si>
-    <t>毛利</t>
-  </si>
-  <si>
-    <t>自由现金流增长率(G)</t>
+    <t>毛利率</t>
+  </si>
+  <si>
+    <t>总股本</t>
   </si>
   <si>
     <t>总杠杆</t>
-  </si>
-  <si>
-    <t>毛利率</t>
-  </si>
-  <si>
-    <t>总股本</t>
   </si>
   <si>
     <t>核心利润</t>
@@ -656,14 +656,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="\+0;\-0;0;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -731,47 +731,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,67 +770,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,6 +800,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -870,6 +825,51 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,37 +914,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,19 +938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +962,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,13 +1004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,13 +1016,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,7 +1034,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,31 +1064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,13 +1076,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,17 +1160,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1186,15 +1175,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1206,30 +1186,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1257,6 +1213,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1265,10 +1265,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1277,137 +1277,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1450,7 +1450,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1504,7 +1504,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1516,7 +1516,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1534,17 +1534,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1987,15 +1996,15 @@
       <c r="I4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J18</f>
         <v>0</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K18</f>
         <v>0</v>
       </c>
-      <c r="L4" s="54">
+      <c r="L4" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L18</f>
         <v>0</v>
       </c>
@@ -2166,15 +2175,15 @@
       <c r="C10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="57" t="e">
+      <c r="D10" s="60" t="e">
         <f>D4/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="57" t="e">
+      <c r="E10" s="60" t="e">
         <f>E4/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="57" t="e">
+      <c r="F10" s="60" t="e">
         <f>F4/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2191,15 +2200,15 @@
       <c r="C11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="57" t="e">
+      <c r="D11" s="60" t="e">
         <f>D5/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E11" s="57" t="e">
+      <c r="E11" s="60" t="e">
         <f>E5/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="57" t="e">
+      <c r="F11" s="60" t="e">
         <f>F5/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2216,15 +2225,15 @@
       <c r="C12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="57" t="e">
+      <c r="D12" s="60" t="e">
         <f>D6/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E12" s="57" t="e">
+      <c r="E12" s="60" t="e">
         <f>E6/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="57" t="e">
+      <c r="F12" s="60" t="e">
         <f>F6/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2232,15 +2241,15 @@
       <c r="I12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="57" t="e">
+      <c r="J12" s="60" t="e">
         <f t="shared" ref="J12:L12" si="0">J4/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="57" t="e">
+      <c r="K12" s="60" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="57" t="e">
+      <c r="L12" s="60" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2250,15 +2259,15 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="57" t="e">
+      <c r="D13" s="60" t="e">
         <f>D7/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E13" s="57" t="e">
+      <c r="E13" s="60" t="e">
         <f>E7/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="57" t="e">
+      <c r="F13" s="60" t="e">
         <f>F7/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2266,15 +2275,15 @@
       <c r="I13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="57" t="e">
+      <c r="J13" s="60" t="e">
         <f t="shared" ref="J13:L13" si="1">J5/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="57" t="e">
+      <c r="K13" s="60" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="57" t="e">
+      <c r="L13" s="60" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2284,15 +2293,15 @@
       <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="57" t="e">
+      <c r="D14" s="60" t="e">
         <f>D8/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E14" s="57" t="e">
+      <c r="E14" s="60" t="e">
         <f>E8/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="57" t="e">
+      <c r="F14" s="60" t="e">
         <f>F8/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2300,15 +2309,15 @@
       <c r="I14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="57" t="e">
+      <c r="J14" s="60" t="e">
         <f t="shared" ref="J14:L14" si="2">J6/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="57" t="e">
+      <c r="K14" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="57" t="e">
+      <c r="L14" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2320,15 +2329,15 @@
       <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="61">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D12</f>
         <v>0</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="61">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E12</f>
         <v>0</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="61">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F12</f>
         <v>0</v>
       </c>
@@ -2336,15 +2345,15 @@
       <c r="I15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="57" t="e">
+      <c r="J15" s="60" t="e">
         <f t="shared" ref="J15:L15" si="3">J7/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="57" t="e">
+      <c r="K15" s="60" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="57" t="e">
+      <c r="L15" s="60" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2361,15 +2370,15 @@
       <c r="I16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="57" t="e">
+      <c r="J16" s="60" t="e">
         <f t="shared" ref="J16:L16" si="4">J8/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="57" t="e">
+      <c r="K16" s="60" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="57" t="e">
+      <c r="L16" s="60" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -2395,15 +2404,15 @@
       <c r="I17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="57" t="e">
+      <c r="J17" s="60" t="e">
         <f t="shared" ref="J17:L17" si="5">J9/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="57" t="e">
+      <c r="K17" s="60" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="57" t="e">
+      <c r="L17" s="60" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -2420,15 +2429,15 @@
       <c r="I18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="57" t="e">
+      <c r="J18" s="60" t="e">
         <f t="shared" ref="J18:L18" si="6">J10/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="57" t="e">
+      <c r="K18" s="60" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="57" t="e">
+      <c r="L18" s="60" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2447,15 +2456,15 @@
       <c r="I19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J17</f>
         <v>0</v>
       </c>
-      <c r="K19" s="54">
+      <c r="K19" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K17</f>
         <v>0</v>
       </c>
-      <c r="L19" s="54">
+      <c r="L19" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L17</f>
         <v>0</v>
       </c>
@@ -2481,15 +2490,15 @@
       <c r="I20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J20" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J16</f>
         <v>0</v>
       </c>
-      <c r="K20" s="54">
+      <c r="K20" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K16</f>
         <v>0</v>
       </c>
-      <c r="L20" s="54">
+      <c r="L20" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L16</f>
         <v>0</v>
       </c>
@@ -2531,15 +2540,15 @@
       <c r="I22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="54">
+      <c r="J22" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J11</f>
         <v>0</v>
       </c>
-      <c r="K22" s="54">
+      <c r="K22" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K11</f>
         <v>0</v>
       </c>
-      <c r="L22" s="54">
+      <c r="L22" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L11</f>
         <v>0</v>
       </c>
@@ -2590,15 +2599,15 @@
       <c r="C25" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="57" t="e">
+      <c r="D25" s="60" t="e">
         <f>D15/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="57" t="e">
+      <c r="E25" s="60" t="e">
         <f>E15/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="57" t="e">
+      <c r="F25" s="60" t="e">
         <f>F15/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2606,15 +2615,15 @@
       <c r="I25" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="57" t="e">
+      <c r="J25" s="60" t="e">
         <f t="shared" ref="J25:L25" si="7">J4/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="57" t="e">
+      <c r="K25" s="60" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="57" t="e">
+      <c r="L25" s="60" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -2624,15 +2633,15 @@
       <c r="C26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="57" t="e">
+      <c r="D26" s="60" t="e">
         <f>D16/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="57" t="e">
+      <c r="E26" s="60" t="e">
         <f>E16/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="57" t="e">
+      <c r="F26" s="60" t="e">
         <f>F16/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2640,15 +2649,15 @@
       <c r="I26" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="57" t="e">
+      <c r="J26" s="60" t="e">
         <f t="shared" ref="J26:L26" si="8">J19/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="57" t="e">
+      <c r="K26" s="60" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="57" t="e">
+      <c r="L26" s="60" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -2658,15 +2667,15 @@
       <c r="C27" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="57" t="e">
+      <c r="D27" s="60" t="e">
         <f>D17/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="57" t="e">
+      <c r="E27" s="60" t="e">
         <f>E17/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="57" t="e">
+      <c r="F27" s="60" t="e">
         <f>F17/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2674,15 +2683,15 @@
       <c r="I27" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="57" t="e">
+      <c r="J27" s="60" t="e">
         <f t="shared" ref="J27:L27" si="9">J20/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="57" t="e">
+      <c r="K27" s="60" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="57" t="e">
+      <c r="L27" s="60" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -2692,15 +2701,15 @@
       <c r="C28" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="57" t="e">
+      <c r="D28" s="60" t="e">
         <f>D18/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="57" t="e">
+      <c r="E28" s="60" t="e">
         <f>E18/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="57" t="e">
+      <c r="F28" s="60" t="e">
         <f>F18/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2708,15 +2717,15 @@
       <c r="I28" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J28" s="57" t="e">
+      <c r="J28" s="60" t="e">
         <f t="shared" ref="J28:L28" si="10">J21/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="57" t="e">
+      <c r="K28" s="60" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="57" t="e">
+      <c r="L28" s="60" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
@@ -2726,15 +2735,15 @@
       <c r="C29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="57" t="e">
+      <c r="D29" s="60" t="e">
         <f>D19/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="57" t="e">
+      <c r="E29" s="60" t="e">
         <f>E19/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="57" t="e">
+      <c r="F29" s="60" t="e">
         <f>F19/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2742,15 +2751,15 @@
       <c r="I29" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="57" t="e">
+      <c r="J29" s="60" t="e">
         <f t="shared" ref="J29:L29" si="11">J22/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="57" t="e">
+      <c r="K29" s="60" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="57" t="e">
+      <c r="L29" s="60" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -2760,15 +2769,15 @@
       <c r="C30" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="57" t="e">
+      <c r="D30" s="60" t="e">
         <f>D20/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="57" t="e">
+      <c r="E30" s="60" t="e">
         <f>E20/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="57" t="e">
+      <c r="F30" s="60" t="e">
         <f>F20/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2776,15 +2785,15 @@
       <c r="I30" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="57" t="e">
+      <c r="J30" s="60" t="e">
         <f t="shared" ref="J30:L30" si="12">J23/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="57" t="e">
+      <c r="K30" s="60" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="57" t="e">
+      <c r="L30" s="60" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -2794,15 +2803,15 @@
       <c r="C31" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="57" t="e">
+      <c r="D31" s="60" t="e">
         <f>D21/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="57" t="e">
+      <c r="E31" s="60" t="e">
         <f>E21/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="57" t="e">
+      <c r="F31" s="60" t="e">
         <f>F21/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2812,15 +2821,15 @@
       <c r="C32" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="57" t="e">
+      <c r="D32" s="60" t="e">
         <f>D22/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="57" t="e">
+      <c r="E32" s="60" t="e">
         <f>E22/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="57" t="e">
+      <c r="F32" s="60" t="e">
         <f>F22/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2830,15 +2839,15 @@
       <c r="C33" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="57" t="e">
+      <c r="D33" s="60" t="e">
         <f t="shared" ref="D33:F33" si="13">D23/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="57" t="e">
+      <c r="E33" s="60" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F33" s="57" t="e">
+      <c r="F33" s="60" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -3036,7 +3045,7 @@
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="51" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -3046,15 +3055,15 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="49"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="12" t="s">
         <v>26</v>
       </c>
@@ -3072,7 +3081,7 @@
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="49"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="12" t="s">
         <v>69</v>
       </c>
@@ -3088,7 +3097,7 @@
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="49"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="12" t="s">
         <v>71</v>
       </c>
@@ -3104,7 +3113,7 @@
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="49"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="12" t="s">
         <v>73</v>
       </c>
@@ -3120,7 +3129,7 @@
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="49"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="12" t="s">
         <v>75</v>
       </c>
@@ -3136,7 +3145,7 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="49"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="12" t="s">
         <v>77</v>
       </c>
@@ -3152,7 +3161,7 @@
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="49"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="12" t="s">
         <v>78</v>
       </c>
@@ -3168,7 +3177,7 @@
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="49"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="12" t="s">
         <v>79</v>
       </c>
@@ -3184,14 +3193,14 @@
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="50"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="H20" s="51"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="13" t="s">
         <v>81</v>
       </c>
@@ -3200,7 +3209,7 @@
       <c r="L20" s="13"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="51"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="13" t="s">
         <v>82</v>
       </c>
@@ -3210,18 +3219,18 @@
       <c r="H21" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="55" t="e">
+      <c r="J21" s="58" t="e">
         <f t="shared" ref="J21:L21" si="0">SUM(J4:J11)/J20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="55" t="e">
+      <c r="K21" s="58" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="55" t="e">
+      <c r="L21" s="58" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -3230,52 +3239,52 @@
       <c r="B22" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="53" t="e">
+      <c r="D22" s="56" t="e">
         <f>SUM(D4:D10)/D21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="53" t="e">
+      <c r="E22" s="56" t="e">
         <f>SUM(E4:E10)/E21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="53" t="e">
+      <c r="F22" s="56" t="e">
         <f>SUM(F4:F10)/F21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="55" t="e">
+      <c r="J22" s="58" t="e">
         <f t="shared" ref="J22:L22" si="1">SUM(J12:J19)/J20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="55" t="e">
+      <c r="K22" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="55" t="e">
+      <c r="L22" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="23"/>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="53" t="e">
+      <c r="D23" s="56" t="e">
         <f>SUM(D11:D20)/D21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="53" t="e">
+      <c r="E23" s="56" t="e">
         <f>SUM(E11:E20)/E21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="53" t="e">
+      <c r="F23" s="56" t="e">
         <f>SUM(F11:F20)/F21</f>
         <v>#DIV/0!</v>
       </c>
@@ -3283,15 +3292,15 @@
       <c r="I23" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="56" t="e">
+      <c r="J23" s="59" t="e">
         <f t="shared" ref="J23:L23" si="2">SUM(J4:J11)/D21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="56" t="e">
+      <c r="K23" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="56" t="e">
+      <c r="L23" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -3301,15 +3310,15 @@
       <c r="I24" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="56" t="e">
+      <c r="J24" s="59" t="e">
         <f t="shared" ref="J24:L24" si="3">SUM(J12:J19)/D21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="56" t="e">
+      <c r="K24" s="59" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="56" t="e">
+      <c r="L24" s="59" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3333,10 +3342,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L33"/>
+  <dimension ref="B2:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3585,7 +3594,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:14">
       <c r="B16" s="22" t="s">
         <v>117</v>
       </c>
@@ -3603,63 +3612,84 @@
         <v>0</v>
       </c>
       <c r="J16" s="27"/>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="45">
+        <v>2019</v>
+      </c>
+      <c r="M16" s="45">
+        <v>2018</v>
+      </c>
+      <c r="N16" s="45">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="L16" s="44">
-        <f>C18+C10+C6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="22" t="s">
-        <v>121</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="G17" s="30"/>
       <c r="H17" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="J17" s="27"/>
+      <c r="K17" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="45">
-        <v>0.08</v>
-      </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="13" t="s">
+      <c r="L17" s="48">
+        <f>C18+C10+C6</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="48">
+        <f>D18+D10+D6</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="48">
+        <f>E18+E10+E6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="L17" s="44" t="e">
-        <f>(L16+C7+C8+C9)/L16</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="22" t="s">
-        <v>124</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="G18" s="30"/>
       <c r="H18" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="46">
+        <v>0.03</v>
+      </c>
+      <c r="J18" s="27"/>
+      <c r="K18" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="I18" s="45">
-        <v>0.03</v>
-      </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="13" t="s">
+      <c r="L18" s="48" t="e">
+        <f>(L17+C7+C8+C9)/L17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="48" t="e">
+        <f>(M17+F7+F8+F9)/M17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="48" t="e">
+        <f>(N17+F8+F9+F10)/N17</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="31" t="s">
         <v>126</v>
-      </c>
-      <c r="L18" s="44" t="e">
-        <f>L16/(L16-C10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="31" t="s">
-        <v>127</v>
       </c>
       <c r="C19" s="31">
         <f>C4-C5</f>
@@ -3675,23 +3705,31 @@
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="K19" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="I19" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="13" t="s">
+      <c r="L19" s="48" t="e">
+        <f>L17/(L17-C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="48" t="e">
+        <f>M17/(M17-F10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="48" t="e">
+        <f>N17/(N17-F11)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="31" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="44" t="e">
-        <f>L17*L18</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="31" t="s">
-        <v>130</v>
       </c>
       <c r="C20" s="32" t="e">
         <f>C19/C4</f>
@@ -3707,13 +3745,27 @@
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" s="49">
+        <v>100</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I20" s="46">
-        <v>100</v>
-      </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
+      <c r="L20" s="48" t="e">
+        <f t="shared" ref="L20:N20" si="0">L18*L19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="48" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="48" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="33" t="s">
@@ -3899,7 +3951,7 @@
       <c r="H28" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="I28" s="47">
+      <c r="I28" s="50">
         <v>0.1</v>
       </c>
       <c r="J28" s="22"/>
@@ -3909,7 +3961,7 @@
       <c r="H29" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="I29" s="47">
+      <c r="I29" s="50">
         <v>0.04</v>
       </c>
       <c r="J29" s="13">
@@ -3922,7 +3974,7 @@
       <c r="H30" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I30" s="47">
+      <c r="I30" s="50">
         <v>0.02</v>
       </c>
       <c r="J30" s="13">
@@ -4481,7 +4533,7 @@
     <row r="32" ht="16.05" spans="2:4">
       <c r="B32" s="19"/>
       <c r="C32" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>189</v>

--- a/funds/stocks/财管&财务报表同型分析.xlsx
+++ b/funds/stocks/财管&财务报表同型分析.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="211">
   <si>
     <t>项目</t>
   </si>
@@ -294,6 +294,9 @@
     <t>金融性负债占总资产比率</t>
   </si>
   <si>
+    <t>分项</t>
+  </si>
+  <si>
     <t>营业收入</t>
   </si>
   <si>
@@ -303,13 +306,16 @@
     <t>经营活动产生的现金流量净额</t>
   </si>
   <si>
+    <t>资本性支出</t>
+  </si>
+  <si>
     <t>营业成本</t>
   </si>
   <si>
     <t>投资现金流</t>
   </si>
   <si>
-    <t>资本性支出</t>
+    <t>核心利润</t>
   </si>
   <si>
     <t>营业税金及附加</t>
@@ -318,6 +324,9 @@
     <t>投资支付的现金</t>
   </si>
   <si>
+    <t>持续经营净利润</t>
+  </si>
+  <si>
     <t>销售费用</t>
   </si>
   <si>
@@ -390,9 +399,6 @@
     <t>EBIT</t>
   </si>
   <si>
-    <t>持续经营净利润</t>
-  </si>
-  <si>
     <t>永续年金增长率(g)</t>
   </si>
   <si>
@@ -415,9 +421,6 @@
   </si>
   <si>
     <t>总杠杆</t>
-  </si>
-  <si>
-    <t>核心利润</t>
   </si>
   <si>
     <t>第一年价值</t>
@@ -656,14 +659,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="\+0;\-0;0;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -731,9 +734,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,11 +757,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -763,14 +772,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,9 +785,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,54 +800,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,6 +818,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -869,7 +872,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,7 +917,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,7 +1031,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,157 +1091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,6 +1164,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1171,6 +1189,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,47 +1244,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,15 +1260,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1265,10 +1268,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1277,137 +1280,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1450,7 +1453,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1504,7 +1507,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1516,7 +1519,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1534,10 +1537,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1552,7 +1561,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1996,15 +2005,15 @@
       <c r="I4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="59">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J18</f>
         <v>0</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="59">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K18</f>
         <v>0</v>
       </c>
-      <c r="L4" s="57">
+      <c r="L4" s="59">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L18</f>
         <v>0</v>
       </c>
@@ -2152,7 +2161,7 @@
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="43"/>
+      <c r="F9" s="45"/>
       <c r="H9" s="23"/>
       <c r="I9" s="22" t="s">
         <v>14</v>
@@ -2175,15 +2184,15 @@
       <c r="C10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="60" t="e">
+      <c r="D10" s="62" t="e">
         <f>D4/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="60" t="e">
+      <c r="E10" s="62" t="e">
         <f>E4/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="60" t="e">
+      <c r="F10" s="62" t="e">
         <f>F4/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2200,15 +2209,15 @@
       <c r="C11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="60" t="e">
+      <c r="D11" s="62" t="e">
         <f>D5/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E11" s="60" t="e">
+      <c r="E11" s="62" t="e">
         <f>E5/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="60" t="e">
+      <c r="F11" s="62" t="e">
         <f>F5/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2218,22 +2227,22 @@
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="43"/>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="23"/>
       <c r="C12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="60" t="e">
+      <c r="D12" s="62" t="e">
         <f>D6/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E12" s="60" t="e">
+      <c r="E12" s="62" t="e">
         <f>E6/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="60" t="e">
+      <c r="F12" s="62" t="e">
         <f>F6/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2241,15 +2250,15 @@
       <c r="I12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="60" t="e">
+      <c r="J12" s="62" t="e">
         <f t="shared" ref="J12:L12" si="0">J4/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="60" t="e">
+      <c r="K12" s="62" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="60" t="e">
+      <c r="L12" s="62" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2259,15 +2268,15 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="60" t="e">
+      <c r="D13" s="62" t="e">
         <f>D7/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E13" s="60" t="e">
+      <c r="E13" s="62" t="e">
         <f>E7/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="60" t="e">
+      <c r="F13" s="62" t="e">
         <f>F7/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2275,15 +2284,15 @@
       <c r="I13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="60" t="e">
+      <c r="J13" s="62" t="e">
         <f t="shared" ref="J13:L13" si="1">J5/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="60" t="e">
+      <c r="K13" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="60" t="e">
+      <c r="L13" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2293,15 +2302,15 @@
       <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="60" t="e">
+      <c r="D14" s="62" t="e">
         <f>D8/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E14" s="60" t="e">
+      <c r="E14" s="62" t="e">
         <f>E8/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="60" t="e">
+      <c r="F14" s="62" t="e">
         <f>F8/F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -2309,15 +2318,15 @@
       <c r="I14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="60" t="e">
+      <c r="J14" s="62" t="e">
         <f t="shared" ref="J14:L14" si="2">J6/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="60" t="e">
+      <c r="K14" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="60" t="e">
+      <c r="L14" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2329,15 +2338,15 @@
       <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="63">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D12</f>
         <v>0</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="63">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E12</f>
         <v>0</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="63">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F12</f>
         <v>0</v>
       </c>
@@ -2345,15 +2354,15 @@
       <c r="I15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="60" t="e">
+      <c r="J15" s="62" t="e">
         <f t="shared" ref="J15:L15" si="3">J7/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="60" t="e">
+      <c r="K15" s="62" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="60" t="e">
+      <c r="L15" s="62" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2370,15 +2379,15 @@
       <c r="I16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="60" t="e">
+      <c r="J16" s="62" t="e">
         <f t="shared" ref="J16:L16" si="4">J8/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="60" t="e">
+      <c r="K16" s="62" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="60" t="e">
+      <c r="L16" s="62" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -2404,15 +2413,15 @@
       <c r="I17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="60" t="e">
+      <c r="J17" s="62" t="e">
         <f t="shared" ref="J17:L17" si="5">J9/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="60" t="e">
+      <c r="K17" s="62" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="60" t="e">
+      <c r="L17" s="62" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -2429,15 +2438,15 @@
       <c r="I18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="60" t="e">
+      <c r="J18" s="62" t="e">
         <f t="shared" ref="J18:L18" si="6">J10/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="60" t="e">
+      <c r="K18" s="62" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="60" t="e">
+      <c r="L18" s="62" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2456,15 +2465,15 @@
       <c r="I19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="57">
+      <c r="J19" s="59">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J17</f>
         <v>0</v>
       </c>
-      <c r="K19" s="57">
+      <c r="K19" s="59">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K17</f>
         <v>0</v>
       </c>
-      <c r="L19" s="57">
+      <c r="L19" s="59">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L17</f>
         <v>0</v>
       </c>
@@ -2490,15 +2499,15 @@
       <c r="I20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="57">
+      <c r="J20" s="59">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J16</f>
         <v>0</v>
       </c>
-      <c r="K20" s="57">
+      <c r="K20" s="59">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K16</f>
         <v>0</v>
       </c>
-      <c r="L20" s="57">
+      <c r="L20" s="59">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L16</f>
         <v>0</v>
       </c>
@@ -2540,15 +2549,15 @@
       <c r="I22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="59">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J11</f>
         <v>0</v>
       </c>
-      <c r="K22" s="57">
+      <c r="K22" s="59">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K11</f>
         <v>0</v>
       </c>
-      <c r="L22" s="57">
+      <c r="L22" s="59">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L11</f>
         <v>0</v>
       </c>
@@ -2599,15 +2608,15 @@
       <c r="C25" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="60" t="e">
+      <c r="D25" s="62" t="e">
         <f>D15/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="60" t="e">
+      <c r="E25" s="62" t="e">
         <f>E15/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="60" t="e">
+      <c r="F25" s="62" t="e">
         <f>F15/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2615,15 +2624,15 @@
       <c r="I25" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="60" t="e">
+      <c r="J25" s="62" t="e">
         <f t="shared" ref="J25:L25" si="7">J4/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="60" t="e">
+      <c r="K25" s="62" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="60" t="e">
+      <c r="L25" s="62" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -2633,15 +2642,15 @@
       <c r="C26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="60" t="e">
+      <c r="D26" s="62" t="e">
         <f>D16/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="60" t="e">
+      <c r="E26" s="62" t="e">
         <f>E16/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="60" t="e">
+      <c r="F26" s="62" t="e">
         <f>F16/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2649,15 +2658,15 @@
       <c r="I26" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="60" t="e">
+      <c r="J26" s="62" t="e">
         <f t="shared" ref="J26:L26" si="8">J19/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="60" t="e">
+      <c r="K26" s="62" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="60" t="e">
+      <c r="L26" s="62" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -2667,15 +2676,15 @@
       <c r="C27" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="60" t="e">
+      <c r="D27" s="62" t="e">
         <f>D17/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="60" t="e">
+      <c r="E27" s="62" t="e">
         <f>E17/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="60" t="e">
+      <c r="F27" s="62" t="e">
         <f>F17/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2683,15 +2692,15 @@
       <c r="I27" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="60" t="e">
+      <c r="J27" s="62" t="e">
         <f t="shared" ref="J27:L27" si="9">J20/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="60" t="e">
+      <c r="K27" s="62" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="60" t="e">
+      <c r="L27" s="62" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -2701,15 +2710,15 @@
       <c r="C28" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="60" t="e">
+      <c r="D28" s="62" t="e">
         <f>D18/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="60" t="e">
+      <c r="E28" s="62" t="e">
         <f>E18/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="60" t="e">
+      <c r="F28" s="62" t="e">
         <f>F18/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2717,15 +2726,15 @@
       <c r="I28" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J28" s="60" t="e">
+      <c r="J28" s="62" t="e">
         <f t="shared" ref="J28:L28" si="10">J21/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="60" t="e">
+      <c r="K28" s="62" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="60" t="e">
+      <c r="L28" s="62" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
@@ -2735,15 +2744,15 @@
       <c r="C29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="60" t="e">
+      <c r="D29" s="62" t="e">
         <f>D19/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="60" t="e">
+      <c r="E29" s="62" t="e">
         <f>E19/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="60" t="e">
+      <c r="F29" s="62" t="e">
         <f>F19/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2751,15 +2760,15 @@
       <c r="I29" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="60" t="e">
+      <c r="J29" s="62" t="e">
         <f t="shared" ref="J29:L29" si="11">J22/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="60" t="e">
+      <c r="K29" s="62" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="60" t="e">
+      <c r="L29" s="62" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -2769,15 +2778,15 @@
       <c r="C30" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="60" t="e">
+      <c r="D30" s="62" t="e">
         <f>D20/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="60" t="e">
+      <c r="E30" s="62" t="e">
         <f>E20/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="60" t="e">
+      <c r="F30" s="62" t="e">
         <f>F20/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2785,15 +2794,15 @@
       <c r="I30" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="60" t="e">
+      <c r="J30" s="62" t="e">
         <f t="shared" ref="J30:L30" si="12">J23/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="60" t="e">
+      <c r="K30" s="62" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="60" t="e">
+      <c r="L30" s="62" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -2803,15 +2812,15 @@
       <c r="C31" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="60" t="e">
+      <c r="D31" s="62" t="e">
         <f>D21/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="60" t="e">
+      <c r="E31" s="62" t="e">
         <f>E21/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="60" t="e">
+      <c r="F31" s="62" t="e">
         <f>F21/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2821,15 +2830,15 @@
       <c r="C32" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="60" t="e">
+      <c r="D32" s="62" t="e">
         <f>D22/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="60" t="e">
+      <c r="E32" s="62" t="e">
         <f>E22/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="60" t="e">
+      <c r="F32" s="62" t="e">
         <f>F22/F24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2839,15 +2848,15 @@
       <c r="C33" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="60" t="e">
+      <c r="D33" s="62" t="e">
         <f t="shared" ref="D33:F33" si="13">D23/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="60" t="e">
+      <c r="E33" s="62" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F33" s="60" t="e">
+      <c r="F33" s="62" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -3026,7 +3035,7 @@
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="43"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="23"/>
@@ -3045,7 +3054,7 @@
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -3055,15 +3064,15 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="52"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="12" t="s">
         <v>26</v>
       </c>
@@ -3081,7 +3090,7 @@
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="52"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="12" t="s">
         <v>69</v>
       </c>
@@ -3097,7 +3106,7 @@
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="52"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="12" t="s">
         <v>71</v>
       </c>
@@ -3113,7 +3122,7 @@
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="52"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="12" t="s">
         <v>73</v>
       </c>
@@ -3129,7 +3138,7 @@
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="52"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="12" t="s">
         <v>75</v>
       </c>
@@ -3145,7 +3154,7 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="52"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="12" t="s">
         <v>77</v>
       </c>
@@ -3161,7 +3170,7 @@
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="52"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="12" t="s">
         <v>78</v>
       </c>
@@ -3177,7 +3186,7 @@
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="52"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="12" t="s">
         <v>79</v>
       </c>
@@ -3193,14 +3202,14 @@
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="53"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="H20" s="54"/>
+      <c r="H20" s="56"/>
       <c r="I20" s="13" t="s">
         <v>81</v>
       </c>
@@ -3209,7 +3218,7 @@
       <c r="L20" s="13"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="54"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="13" t="s">
         <v>82</v>
       </c>
@@ -3219,18 +3228,18 @@
       <c r="H21" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="58" t="e">
+      <c r="J21" s="60" t="e">
         <f t="shared" ref="J21:L21" si="0">SUM(J4:J11)/J20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="58" t="e">
+      <c r="K21" s="60" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="58" t="e">
+      <c r="L21" s="60" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -3239,52 +3248,52 @@
       <c r="B22" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="56" t="e">
+      <c r="D22" s="58" t="e">
         <f>SUM(D4:D10)/D21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="56" t="e">
+      <c r="E22" s="58" t="e">
         <f>SUM(E4:E10)/E21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="56" t="e">
+      <c r="F22" s="58" t="e">
         <f>SUM(F4:F10)/F21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="55" t="s">
+      <c r="I22" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="58" t="e">
+      <c r="J22" s="60" t="e">
         <f t="shared" ref="J22:L22" si="1">SUM(J12:J19)/J20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="58" t="e">
+      <c r="K22" s="60" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="58" t="e">
+      <c r="L22" s="60" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="23"/>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="56" t="e">
+      <c r="D23" s="58" t="e">
         <f>SUM(D11:D20)/D21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="56" t="e">
+      <c r="E23" s="58" t="e">
         <f>SUM(E11:E20)/E21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="56" t="e">
+      <c r="F23" s="58" t="e">
         <f>SUM(F11:F20)/F21</f>
         <v>#DIV/0!</v>
       </c>
@@ -3292,15 +3301,15 @@
       <c r="I23" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="59" t="e">
+      <c r="J23" s="61" t="e">
         <f t="shared" ref="J23:L23" si="2">SUM(J4:J11)/D21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="59" t="e">
+      <c r="K23" s="61" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="59" t="e">
+      <c r="L23" s="61" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -3310,15 +3319,15 @@
       <c r="I24" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="59" t="e">
+      <c r="J24" s="61" t="e">
         <f t="shared" ref="J24:L24" si="3">SUM(J12:J19)/D21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="59" t="e">
+      <c r="K24" s="61" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="59" t="e">
+      <c r="L24" s="61" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3342,10 +3351,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:N33"/>
+  <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3358,9 +3367,10 @@
     <col min="10" max="10" width="9.45081967213115" customWidth="1"/>
     <col min="11" max="11" width="12.4344262295082" customWidth="1"/>
     <col min="12" max="12" width="8.72131147540984" style="21"/>
+    <col min="13" max="13" width="14.7295081967213" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:16">
       <c r="B2" s="22"/>
       <c r="C2" s="22">
         <v>2019</v>
@@ -3382,8 +3392,20 @@
       <c r="K2" s="22">
         <v>2017</v>
       </c>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="M2" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="43">
+        <v>2019</v>
+      </c>
+      <c r="O2" s="43">
+        <v>2018</v>
+      </c>
+      <c r="P2" s="43">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
       <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
@@ -3397,67 +3419,127 @@
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="2:12">
+      <c r="M3" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="43">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="43">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="43">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
       <c r="B4" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="G4" s="23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
-      <c r="L4" s="42"/>
-    </row>
-    <row r="5" spans="2:11">
+      <c r="L4" s="44"/>
+      <c r="M4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" s="43">
+        <f t="shared" ref="N4:P4" si="0">I5</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
       <c r="B5" s="22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="G5" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>95</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>96</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
-    </row>
-    <row r="6" spans="2:11">
+      <c r="M5" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="43">
+        <f>C21</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="43">
+        <f>D21</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="43">
+        <f>E21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="G6" s="23"/>
       <c r="H6" s="22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
+      <c r="M6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="43">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="43">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="43">
+        <f>E18</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
@@ -3465,16 +3547,16 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="G8" s="23" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -3482,14 +3564,14 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="G9" s="23"/>
       <c r="H9" s="22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -3497,29 +3579,29 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="22" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="43"/>
+      <c r="K10" s="45"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="G11" s="23"/>
       <c r="H11" s="22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -3527,14 +3609,14 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="G12" s="23"/>
       <c r="H12" s="22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -3542,14 +3624,14 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="G13" s="23"/>
       <c r="H13" s="24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -3557,16 +3639,16 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="G14" s="25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I14" s="26">
         <f>I4-I5-I6</f>
@@ -3583,7 +3665,7 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -3596,100 +3678,100 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="G16" s="28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I16" s="29">
         <f>SUM(I14:K14)/3</f>
         <v>0</v>
       </c>
       <c r="J16" s="27"/>
-      <c r="K16" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="45">
+      <c r="K16" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="47">
         <v>2019</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="47">
         <v>2018</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="47">
         <v>2017</v>
       </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="G17" s="30"/>
       <c r="H17" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17" s="46">
+        <v>124</v>
+      </c>
+      <c r="I17" s="48">
         <v>0.08</v>
       </c>
       <c r="J17" s="27"/>
-      <c r="K17" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="L17" s="48">
+      <c r="K17" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="50">
         <f>C18+C10+C6</f>
         <v>0</v>
       </c>
-      <c r="M17" s="48">
+      <c r="M17" s="50">
         <f>D18+D10+D6</f>
         <v>0</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="50">
         <f>E18+E10+E6</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="22" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="G18" s="30"/>
       <c r="H18" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="46">
+        <v>126</v>
+      </c>
+      <c r="I18" s="48">
         <v>0.03</v>
       </c>
       <c r="J18" s="27"/>
-      <c r="K18" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="L18" s="48" t="e">
+      <c r="K18" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="50" t="e">
         <f>(L17+C7+C8+C9)/L17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="48" t="e">
+      <c r="M18" s="50" t="e">
         <f>(M17+F7+F8+F9)/M17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="48" t="e">
+      <c r="N18" s="50" t="e">
         <f>(N17+F8+F9+F10)/N17</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C19" s="31">
         <f>C4-C5</f>
@@ -3705,31 +3787,31 @@
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" s="46">
+        <v>129</v>
+      </c>
+      <c r="I19" s="48">
         <v>0.1</v>
       </c>
       <c r="J19" s="27"/>
-      <c r="K19" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="48" t="e">
+      <c r="K19" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="50" t="e">
         <f>L17/(L17-C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="48" t="e">
+      <c r="M19" s="50" t="e">
         <f>M17/(M17-F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N19" s="48" t="e">
+      <c r="N19" s="50" t="e">
         <f>N17/(N17-F11)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C20" s="32" t="e">
         <f>C19/C4</f>
@@ -3745,31 +3827,31 @@
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" s="49">
+        <v>132</v>
+      </c>
+      <c r="I20" s="51">
         <v>100</v>
       </c>
       <c r="J20" s="27"/>
-      <c r="K20" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="L20" s="48" t="e">
-        <f t="shared" ref="L20:N20" si="0">L18*L19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="48" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="48" t="e">
-        <f t="shared" si="0"/>
+      <c r="K20" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="50" t="e">
+        <f t="shared" ref="L20:N20" si="1">L18*L19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="50" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="33" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C21" s="33">
         <f>C4-C5-C6-C7-C8-C9-C10</f>
@@ -3785,7 +3867,7 @@
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I21" s="29">
         <f>I16*(1+I19)/POWER(1+I17,1)</f>
@@ -3796,7 +3878,7 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" s="34" t="e">
         <f>C21/C4</f>
@@ -3812,7 +3894,7 @@
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I22" s="29">
         <f>I16*POWER(1+I19,2)/POWER(1+I17,2)</f>
@@ -3823,7 +3905,7 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23" s="36" t="e">
         <f>C21/I4</f>
@@ -3839,7 +3921,7 @@
       </c>
       <c r="G23" s="30"/>
       <c r="H23" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I23" s="29">
         <f>I16*POWER(1+I19,3)/POWER(1+I17,3)</f>
@@ -3850,7 +3932,7 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24" s="37" t="e">
         <f>C7/C4</f>
@@ -3866,7 +3948,7 @@
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I24" s="29">
         <f>(SUM(I21:I23)*(1+I18))/I17-I18</f>
@@ -3877,7 +3959,7 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" s="37" t="e">
         <f>C8/C4</f>
@@ -3893,7 +3975,7 @@
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I25" s="29">
         <f>SUM(I21:I24)</f>
@@ -3904,7 +3986,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" s="37" t="e">
         <f>C16/C4</f>
@@ -3920,7 +4002,7 @@
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I26" s="16">
         <f>I25/I20</f>
@@ -3929,7 +4011,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27" s="37" t="e">
         <f>C18/C4</f>
@@ -3946,12 +4028,12 @@
     </row>
     <row r="28" spans="7:10">
       <c r="G28" s="39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="I28" s="50">
+        <v>147</v>
+      </c>
+      <c r="I28" s="52">
         <v>0.1</v>
       </c>
       <c r="J28" s="22"/>
@@ -3959,9 +4041,9 @@
     <row r="29" spans="7:10">
       <c r="G29" s="40"/>
       <c r="H29" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="I29" s="50">
+        <v>148</v>
+      </c>
+      <c r="I29" s="52">
         <v>0.04</v>
       </c>
       <c r="J29" s="13">
@@ -3972,9 +4054,9 @@
     <row r="30" spans="7:10">
       <c r="G30" s="40"/>
       <c r="H30" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30" s="50">
+        <v>149</v>
+      </c>
+      <c r="I30" s="52">
         <v>0.02</v>
       </c>
       <c r="J30" s="13">
@@ -3985,7 +4067,7 @@
     <row r="31" spans="7:10">
       <c r="G31" s="40"/>
       <c r="H31" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I31" s="13">
         <f>(C18*POWER(1+I28,3))*J29</f>
@@ -3999,7 +4081,7 @@
     <row r="32" spans="7:10">
       <c r="G32" s="40"/>
       <c r="H32" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I32" s="13">
         <f>I31*0.7</f>
@@ -4013,7 +4095,7 @@
     <row r="33" spans="7:10">
       <c r="G33" s="41"/>
       <c r="H33" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I33" s="13">
         <f>(C18*POWER(1+I28,3))*J30</f>
@@ -4076,15 +4158,15 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>0</v>
@@ -4213,7 +4295,7 @@
     <row r="9" spans="2:10">
       <c r="B9" s="10"/>
       <c r="C9" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D9" s="12">
         <f>'利润&amp;现金流结构分析'!C5</f>
@@ -4228,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I9" s="12">
         <f>D9</f>
@@ -4241,13 +4323,13 @@
     <row r="10" spans="2:10">
       <c r="B10" s="10"/>
       <c r="C10" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="H10" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="11"/>
@@ -4255,13 +4337,13 @@
     <row r="11" spans="2:10">
       <c r="B11" s="10"/>
       <c r="C11" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I11" s="12">
         <f>D11</f>
@@ -4274,7 +4356,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="10"/>
       <c r="C12" s="12" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="D12" s="12">
         <f>'利润&amp;现金流结构分析'!C21</f>
@@ -4289,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="I12" s="12">
         <f>D12</f>
@@ -4302,7 +4384,7 @@
     <row r="13" spans="2:10">
       <c r="B13" s="10"/>
       <c r="C13" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13" s="12">
         <f>'利润&amp;现金流结构分析'!I4</f>
@@ -4317,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I13" s="12">
         <f>D13</f>
@@ -4330,13 +4412,13 @@
     <row r="14" spans="2:10">
       <c r="B14" s="10"/>
       <c r="C14" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="H14" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I14" s="13">
         <v>1.2901867163</v>
@@ -4376,7 +4458,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="10"/>
       <c r="C16" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D16" s="13">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D21</f>
@@ -4391,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I16" s="13">
         <f>D16</f>
@@ -4403,149 +4485,149 @@
     </row>
     <row r="22" ht="16.05" spans="3:4">
       <c r="C22" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" ht="16.05" spans="2:8">
       <c r="B24" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" ht="16.05" spans="2:8">
       <c r="B25" s="19"/>
       <c r="C25" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" ht="16.05" spans="2:8">
       <c r="B26" s="19"/>
       <c r="C26" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" ht="16.05" spans="2:8">
       <c r="B27" s="19"/>
       <c r="C27" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" ht="16.05" spans="2:8">
       <c r="B28" s="19"/>
       <c r="C28" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" ht="16.05" spans="2:8">
       <c r="B29" s="19"/>
       <c r="C29" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" ht="16.05" spans="2:8">
       <c r="B30" s="19"/>
       <c r="C30" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" ht="16.05" spans="2:4">
       <c r="B31" s="19"/>
       <c r="C31" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" ht="16.05" spans="2:4">
       <c r="B32" s="19"/>
       <c r="C32" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" ht="16.05" spans="2:4">
       <c r="B33" s="20"/>
       <c r="C33" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4580,29 +4662,29 @@
   <sheetData>
     <row r="2" ht="18.25" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" ht="18.25" spans="2:8">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>62</v>
@@ -4610,10 +4692,10 @@
       <c r="E3" s="4"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" ht="18.25" spans="2:8">
@@ -4625,34 +4707,34 @@
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" ht="18.25" spans="2:8">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" ht="18.25" spans="2:8">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4661,10 +4743,10 @@
     </row>
     <row r="7" ht="18.25" spans="7:8">
       <c r="G7" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
